--- a/Crew_infinty_details.xlsx
+++ b/Crew_infinty_details.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vetriselvan.kuppan\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{CA18089A-8037-2745-80AF-20704AC66581}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="539"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="539" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="session details" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'session details'!$C$48:$F$169</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="135">
   <si>
     <t>SI No.</t>
   </si>
@@ -414,12 +415,36 @@
   </si>
   <si>
     <t>Payment New from now on except for Naveen and madhav</t>
+  </si>
+  <si>
+    <t>Surya</t>
+  </si>
+  <si>
+    <t>kalpana</t>
+  </si>
+  <si>
+    <t>06/10/2019....leave for Palani</t>
+  </si>
+  <si>
+    <t>19-oct_19</t>
+  </si>
+  <si>
+    <t>mohan</t>
+  </si>
+  <si>
+    <t>dinesh</t>
+  </si>
+  <si>
+    <t>20-oct_19</t>
+  </si>
+  <si>
+    <t>kalpana-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
@@ -1017,7 +1042,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
@@ -1110,6 +1135,37 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="17" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="17" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" xfId="42" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="13" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1117,6 +1173,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="14" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="15" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="15" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="16" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1137,39 +1211,8 @@
     <xf numFmtId="0" fontId="17" fillId="17" borderId="13" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="14" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="15" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="13" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="15" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="16" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1200,7 +1243,7 @@
     <cellStyle name="Bad" xfId="25" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="26" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="27" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Excel Built-in Normal" xfId="42"/>
+    <cellStyle name="Excel Built-in Normal" xfId="42" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="Explanatory Text" xfId="28" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="29" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="30" builtinId="16" customBuiltin="1"/>
@@ -1594,34 +1637,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q169"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="90" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="B201" zoomScale="90" workbookViewId="0">
+      <selection activeCell="B212" sqref="B212"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.59375" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="11.5703125" style="13"/>
-    <col min="3" max="4" width="11.5703125" style="1"/>
-    <col min="5" max="5" width="17.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="1"/>
-    <col min="7" max="7" width="21" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.5703125" style="1"/>
+    <col min="1" max="2" width="11.59375" style="13"/>
+    <col min="3" max="4" width="11.59375" style="1"/>
+    <col min="5" max="5" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.59375" style="1"/>
+    <col min="7" max="7" width="21.03515625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.59375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.15">
+      <c r="A1" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47"/>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
+    </row>
+    <row r="2" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
@@ -1641,7 +1684,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -1655,7 +1698,7 @@
       <c r="E3" s="18"/>
       <c r="F3" s="17"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -1663,7 +1706,7 @@
       <c r="E4" s="18"/>
       <c r="F4" s="17"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="18">
         <v>2</v>
       </c>
@@ -1681,7 +1724,7 @@
       </c>
       <c r="F5" s="17"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="18"/>
@@ -1692,7 +1735,7 @@
       <c r="F6" s="17"/>
       <c r="I6"/>
     </row>
-    <row r="7" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="18">
         <v>3</v>
       </c>
@@ -1711,7 +1754,7 @@
       <c r="F7" s="17"/>
       <c r="I7"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="18"/>
       <c r="B8" s="20"/>
       <c r="C8" s="16"/>
@@ -1730,7 +1773,7 @@
       <c r="P8"/>
       <c r="Q8"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="16">
         <v>4</v>
       </c>
@@ -1755,7 +1798,7 @@
       <c r="P9"/>
       <c r="Q9"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="18">
         <v>5</v>
       </c>
@@ -1780,7 +1823,7 @@
       <c r="P10"/>
       <c r="Q10"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="18"/>
       <c r="B11" s="19"/>
       <c r="C11" s="18"/>
@@ -1800,7 +1843,7 @@
       <c r="P11"/>
       <c r="Q11"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="18">
         <v>6</v>
       </c>
@@ -1826,7 +1869,7 @@
       <c r="P12"/>
       <c r="Q12"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="18"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -1846,7 +1889,7 @@
       <c r="P13"/>
       <c r="Q13"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="18"/>
       <c r="B14" s="19"/>
       <c r="C14" s="21"/>
@@ -1865,7 +1908,7 @@
       <c r="P14"/>
       <c r="Q14"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="18">
         <v>7</v>
       </c>
@@ -1888,7 +1931,7 @@
       <c r="P15"/>
       <c r="Q15"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="18"/>
       <c r="B16" s="25"/>
       <c r="C16" s="21"/>
@@ -1907,7 +1950,7 @@
       <c r="P16"/>
       <c r="Q16"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="18"/>
       <c r="B17" s="25"/>
       <c r="C17" s="21"/>
@@ -1926,7 +1969,7 @@
       <c r="P17"/>
       <c r="Q17"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="18"/>
       <c r="B18" s="25"/>
       <c r="C18" s="21"/>
@@ -1945,7 +1988,7 @@
       <c r="P18"/>
       <c r="Q18"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="18">
         <v>8</v>
       </c>
@@ -1967,7 +2010,7 @@
       <c r="P19"/>
       <c r="Q19"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="18"/>
       <c r="B20" s="25"/>
       <c r="C20" s="21"/>
@@ -1985,7 +2028,7 @@
       <c r="P20"/>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="18"/>
       <c r="B21" s="25"/>
       <c r="C21" s="21"/>
@@ -2003,7 +2046,7 @@
       <c r="P21"/>
       <c r="Q21"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="18">
         <v>9</v>
       </c>
@@ -2029,7 +2072,7 @@
       <c r="P22"/>
       <c r="Q22"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="18"/>
       <c r="B23" s="19"/>
       <c r="C23" s="21"/>
@@ -2049,7 +2092,7 @@
       <c r="P23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="18"/>
       <c r="B24" s="19"/>
       <c r="C24" s="21"/>
@@ -2067,7 +2110,7 @@
       <c r="P24"/>
       <c r="Q24"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" s="18"/>
       <c r="B25" s="19"/>
       <c r="C25" s="21"/>
@@ -2085,7 +2128,7 @@
       <c r="P25"/>
       <c r="Q25"/>
     </row>
-    <row r="26" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="18">
         <v>10</v>
       </c>
@@ -2111,7 +2154,7 @@
       <c r="P26"/>
       <c r="Q26"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="18"/>
       <c r="B27" s="20"/>
       <c r="C27" s="18"/>
@@ -2129,7 +2172,7 @@
       <c r="P27"/>
       <c r="Q27"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" s="18"/>
       <c r="B28" s="20"/>
       <c r="C28" s="18"/>
@@ -2147,7 +2190,7 @@
       <c r="P28"/>
       <c r="Q28"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" s="18"/>
       <c r="B29" s="20"/>
       <c r="C29" s="18"/>
@@ -2165,7 +2208,7 @@
       <c r="P29"/>
       <c r="Q29"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="18">
         <v>11</v>
       </c>
@@ -2187,7 +2230,7 @@
       <c r="P30"/>
       <c r="Q30"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="18">
         <v>12</v>
       </c>
@@ -2209,7 +2252,7 @@
       <c r="P31"/>
       <c r="Q31"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="18">
         <v>13</v>
       </c>
@@ -2231,7 +2274,7 @@
       <c r="P32"/>
       <c r="Q32"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="18">
         <v>14</v>
       </c>
@@ -2254,7 +2297,7 @@
       <c r="P33"/>
       <c r="Q33"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="18"/>
       <c r="B34" s="26"/>
       <c r="C34" s="18"/>
@@ -2271,7 +2314,7 @@
       <c r="P34"/>
       <c r="Q34"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="18"/>
       <c r="B35" s="26"/>
       <c r="C35" s="18"/>
@@ -2288,7 +2331,7 @@
       <c r="P35"/>
       <c r="Q35"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" s="18"/>
       <c r="B36" s="26"/>
       <c r="C36" s="18"/>
@@ -2307,7 +2350,7 @@
       <c r="P36"/>
       <c r="Q36"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="18"/>
       <c r="B37" s="26"/>
       <c r="C37" s="18"/>
@@ -2324,7 +2367,7 @@
       <c r="P37"/>
       <c r="Q37"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38" s="18">
         <v>16</v>
       </c>
@@ -2351,7 +2394,7 @@
       <c r="P38"/>
       <c r="Q38"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
       <c r="C39" s="22"/>
@@ -2372,7 +2415,7 @@
       <c r="P39"/>
       <c r="Q39"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
       <c r="C40" s="22"/>
@@ -2391,7 +2434,7 @@
       <c r="P40"/>
       <c r="Q40"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41" s="18">
         <v>17</v>
       </c>
@@ -2416,7 +2459,7 @@
       <c r="P41"/>
       <c r="Q41"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A42" s="18"/>
       <c r="B42" s="21"/>
       <c r="C42" s="22"/>
@@ -2437,7 +2480,7 @@
       <c r="P42"/>
       <c r="Q42"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A43" s="18"/>
       <c r="B43" s="21"/>
       <c r="C43" s="22"/>
@@ -2458,7 +2501,7 @@
       <c r="P43"/>
       <c r="Q43"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A44" s="18">
         <v>18</v>
       </c>
@@ -2487,7 +2530,7 @@
       <c r="P44"/>
       <c r="Q44"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="18"/>
       <c r="B45" s="21"/>
       <c r="C45" s="22"/>
@@ -2505,7 +2548,7 @@
       <c r="P45"/>
       <c r="Q45"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
       <c r="C46" s="22"/>
@@ -2521,14 +2564,14 @@
       <c r="P46"/>
       <c r="Q46"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="50" t="s">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A47" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
       <c r="F47" s="17"/>
       <c r="L47"/>
       <c r="M47"/>
@@ -2537,7 +2580,7 @@
       <c r="P47"/>
       <c r="Q47"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A48" s="18">
         <v>19</v>
       </c>
@@ -2565,7 +2608,7 @@
       <c r="P48"/>
       <c r="Q48"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A49" s="18">
         <v>20</v>
       </c>
@@ -2587,11 +2630,11 @@
       <c r="P49"/>
       <c r="Q49"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50" s="42">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A50" s="53">
         <v>21</v>
       </c>
-      <c r="B50" s="42" t="s">
+      <c r="B50" s="53" t="s">
         <v>42</v>
       </c>
       <c r="C50" s="17"/>
@@ -2607,9 +2650,9 @@
       <c r="P50"/>
       <c r="Q50"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A51" s="54"/>
+      <c r="B51" s="54"/>
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
       <c r="E51" s="22" t="s">
@@ -2623,11 +2666,11 @@
       <c r="P51"/>
       <c r="Q51"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A52" s="42">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A52" s="53">
         <v>22</v>
       </c>
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="53" t="s">
         <v>45</v>
       </c>
       <c r="C52" s="22" t="s">
@@ -2647,9 +2690,9 @@
       <c r="P52"/>
       <c r="Q52"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A53" s="54"/>
+      <c r="B53" s="54"/>
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
       <c r="E53" s="22" t="s">
@@ -2663,7 +2706,7 @@
       <c r="P53"/>
       <c r="Q53"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A54" s="18">
         <v>23</v>
       </c>
@@ -2687,7 +2730,7 @@
       <c r="P54"/>
       <c r="Q54"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A55" s="18">
         <v>24</v>
       </c>
@@ -2707,7 +2750,7 @@
       <c r="P55"/>
       <c r="Q55"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A56" s="18">
         <v>25</v>
       </c>
@@ -2727,7 +2770,7 @@
       <c r="P56"/>
       <c r="Q56"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A57" s="18">
         <v>26</v>
       </c>
@@ -2751,7 +2794,7 @@
       <c r="P57"/>
       <c r="Q57"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A58" s="18">
         <v>27</v>
       </c>
@@ -2775,11 +2818,11 @@
       <c r="P58"/>
       <c r="Q58"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A59" s="42">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A59" s="53">
         <v>28</v>
       </c>
-      <c r="B59" s="48">
+      <c r="B59" s="65">
         <v>43624</v>
       </c>
       <c r="C59" s="22"/>
@@ -2789,9 +2832,9 @@
       </c>
       <c r="F59" s="17"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A60" s="43"/>
-      <c r="B60" s="49"/>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A60" s="54"/>
+      <c r="B60" s="66"/>
       <c r="C60" s="22"/>
       <c r="D60" s="22"/>
       <c r="E60" s="22" t="s">
@@ -2799,7 +2842,7 @@
       </c>
       <c r="F60" s="17"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A61" s="18">
         <v>29</v>
       </c>
@@ -2813,11 +2856,11 @@
       <c r="E61" s="22"/>
       <c r="F61" s="17"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A62" s="42">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A62" s="53">
         <v>30</v>
       </c>
-      <c r="B62" s="48">
+      <c r="B62" s="65">
         <v>43746</v>
       </c>
       <c r="C62" s="22" t="s">
@@ -2831,9 +2874,9 @@
       </c>
       <c r="F62" s="17"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A63" s="43"/>
-      <c r="B63" s="49"/>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A63" s="54"/>
+      <c r="B63" s="66"/>
       <c r="C63" s="22"/>
       <c r="D63" s="22" t="s">
         <v>16</v>
@@ -2843,11 +2886,11 @@
       </c>
       <c r="F63" s="17"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A64" s="42">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A64" s="53">
         <v>31</v>
       </c>
-      <c r="B64" s="60">
+      <c r="B64" s="59">
         <v>43777</v>
       </c>
       <c r="C64" s="22" t="s">
@@ -2861,9 +2904,9 @@
       </c>
       <c r="F64" s="17"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="43"/>
-      <c r="B65" s="43"/>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" s="54"/>
+      <c r="B65" s="54"/>
       <c r="C65" s="17"/>
       <c r="D65" s="17" t="s">
         <v>56</v>
@@ -2873,11 +2916,11 @@
       </c>
       <c r="F65" s="17"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="42">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" s="53">
         <v>32</v>
       </c>
-      <c r="B66" s="42" t="s">
+      <c r="B66" s="53" t="s">
         <v>59</v>
       </c>
       <c r="C66" s="17"/>
@@ -2887,9 +2930,9 @@
       </c>
       <c r="F66" s="17"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="43"/>
-      <c r="B67" s="43"/>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" s="54"/>
+      <c r="B67" s="54"/>
       <c r="C67" s="17"/>
       <c r="D67" s="17"/>
       <c r="E67" s="17" t="s">
@@ -2897,11 +2940,11 @@
       </c>
       <c r="F67" s="17"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="42">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" s="53">
         <v>33</v>
       </c>
-      <c r="B68" s="42" t="s">
+      <c r="B68" s="53" t="s">
         <v>57</v>
       </c>
       <c r="C68" s="17"/>
@@ -2911,9 +2954,9 @@
       <c r="E68" s="17"/>
       <c r="F68" s="17"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="43"/>
-      <c r="B69" s="43"/>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69" s="54"/>
+      <c r="B69" s="54"/>
       <c r="C69" s="17"/>
       <c r="D69" s="17" t="s">
         <v>69</v>
@@ -2921,9 +2964,9 @@
       <c r="E69" s="17"/>
       <c r="F69" s="17"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="43"/>
-      <c r="B70" s="43"/>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" s="54"/>
+      <c r="B70" s="54"/>
       <c r="C70" s="17"/>
       <c r="D70" s="17" t="s">
         <v>58</v>
@@ -2931,11 +2974,11 @@
       <c r="E70" s="17"/>
       <c r="F70" s="17"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="42">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71" s="53">
         <v>34</v>
       </c>
-      <c r="B71" s="42" t="s">
+      <c r="B71" s="53" t="s">
         <v>123</v>
       </c>
       <c r="C71" s="17"/>
@@ -2947,9 +2990,9 @@
       </c>
       <c r="F71" s="17"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="43"/>
-      <c r="B72" s="43"/>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" s="54"/>
+      <c r="B72" s="54"/>
       <c r="C72" s="17"/>
       <c r="D72" s="17" t="s">
         <v>69</v>
@@ -2959,9 +3002,9 @@
       </c>
       <c r="F72" s="17"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="43"/>
-      <c r="B73" s="43"/>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73" s="54"/>
+      <c r="B73" s="54"/>
       <c r="C73" s="17"/>
       <c r="D73" s="17" t="s">
         <v>56</v>
@@ -2971,11 +3014,11 @@
       </c>
       <c r="F73" s="17"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="42">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" s="53">
         <v>35</v>
       </c>
-      <c r="B74" s="42" t="s">
+      <c r="B74" s="53" t="s">
         <v>124</v>
       </c>
       <c r="C74" s="17" t="s">
@@ -2989,9 +3032,9 @@
       </c>
       <c r="F74" s="17"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="43"/>
-      <c r="B75" s="43"/>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75" s="54"/>
+      <c r="B75" s="54"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17" t="s">
         <v>58</v>
@@ -3001,9 +3044,9 @@
       </c>
       <c r="F75" s="17"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="43"/>
-      <c r="B76" s="43"/>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A76" s="54"/>
+      <c r="B76" s="54"/>
       <c r="C76" s="17"/>
       <c r="D76" s="17" t="s">
         <v>16</v>
@@ -3013,11 +3056,11 @@
       </c>
       <c r="F76" s="17"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="51">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77" s="56">
         <v>36</v>
       </c>
-      <c r="B77" s="51" t="s">
+      <c r="B77" s="56" t="s">
         <v>125</v>
       </c>
       <c r="C77" s="39"/>
@@ -3029,9 +3072,9 @@
       </c>
       <c r="F77" s="39"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="52"/>
-      <c r="B78" s="52"/>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" s="57"/>
+      <c r="B78" s="57"/>
       <c r="C78" s="39"/>
       <c r="D78" s="39" t="s">
         <v>53</v>
@@ -3041,9 +3084,9 @@
       </c>
       <c r="F78" s="39"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="52"/>
-      <c r="B79" s="52"/>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A79" s="57"/>
+      <c r="B79" s="57"/>
       <c r="C79" s="39"/>
       <c r="D79" s="39" t="s">
         <v>58</v>
@@ -3053,11 +3096,11 @@
       </c>
       <c r="F79" s="39"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="42">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" s="53">
         <v>37</v>
       </c>
-      <c r="B80" s="42" t="s">
+      <c r="B80" s="53" t="s">
         <v>64</v>
       </c>
       <c r="C80" s="17"/>
@@ -3069,9 +3112,9 @@
       </c>
       <c r="F80" s="17"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="43"/>
-      <c r="B81" s="43"/>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" s="54"/>
+      <c r="B81" s="54"/>
       <c r="C81" s="17"/>
       <c r="D81" s="17"/>
       <c r="E81" s="17" t="s">
@@ -3079,9 +3122,9 @@
       </c>
       <c r="F81" s="17"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="43"/>
-      <c r="B82" s="43"/>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82" s="54"/>
+      <c r="B82" s="54"/>
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
       <c r="E82" s="17" t="s">
@@ -3089,9 +3132,9 @@
       </c>
       <c r="F82" s="17"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="43"/>
-      <c r="B83" s="43"/>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A83" s="54"/>
+      <c r="B83" s="54"/>
       <c r="C83" s="17"/>
       <c r="D83" s="17"/>
       <c r="E83" s="17" t="s">
@@ -3099,11 +3142,11 @@
       </c>
       <c r="F83" s="17"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="42">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84" s="53">
         <v>38</v>
       </c>
-      <c r="B84" s="42" t="s">
+      <c r="B84" s="53" t="s">
         <v>66</v>
       </c>
       <c r="C84" s="17"/>
@@ -3115,9 +3158,9 @@
       </c>
       <c r="F84" s="17"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="43"/>
-      <c r="B85" s="43"/>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85" s="54"/>
+      <c r="B85" s="54"/>
       <c r="C85" s="17"/>
       <c r="D85" s="17"/>
       <c r="E85" s="17" t="s">
@@ -3125,9 +3168,9 @@
       </c>
       <c r="F85" s="17"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="43"/>
-      <c r="B86" s="43"/>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A86" s="54"/>
+      <c r="B86" s="54"/>
       <c r="C86" s="17"/>
       <c r="D86" s="17"/>
       <c r="E86" s="17" t="s">
@@ -3135,9 +3178,9 @@
       </c>
       <c r="F86" s="17"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="43"/>
-      <c r="B87" s="43"/>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A87" s="54"/>
+      <c r="B87" s="54"/>
       <c r="C87" s="17"/>
       <c r="D87" s="17"/>
       <c r="E87" s="17" t="s">
@@ -3145,11 +3188,11 @@
       </c>
       <c r="F87" s="17"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="42">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A88" s="53">
         <v>39</v>
       </c>
-      <c r="B88" s="42" t="s">
+      <c r="B88" s="53" t="s">
         <v>68</v>
       </c>
       <c r="C88" s="17" t="s">
@@ -3163,9 +3206,9 @@
       </c>
       <c r="F88" s="17"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="43"/>
-      <c r="B89" s="43"/>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A89" s="54"/>
+      <c r="B89" s="54"/>
       <c r="C89" s="17"/>
       <c r="D89" s="17" t="s">
         <v>53</v>
@@ -3175,9 +3218,9 @@
       </c>
       <c r="F89" s="17"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="43"/>
-      <c r="B90" s="43"/>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A90" s="54"/>
+      <c r="B90" s="54"/>
       <c r="C90" s="17"/>
       <c r="D90" s="17" t="s">
         <v>60</v>
@@ -3187,9 +3230,9 @@
       </c>
       <c r="F90" s="17"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="43"/>
-      <c r="B91" s="43"/>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A91" s="54"/>
+      <c r="B91" s="54"/>
       <c r="C91" s="17"/>
       <c r="D91" s="17"/>
       <c r="E91" s="17" t="s">
@@ -3197,7 +3240,7 @@
       </c>
       <c r="F91" s="17"/>
     </row>
-    <row r="92" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="38">
         <v>40</v>
       </c>
@@ -3215,11 +3258,11 @@
       </c>
       <c r="F92" s="39"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="42">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A93" s="53">
         <v>41</v>
       </c>
-      <c r="B93" s="42" t="s">
+      <c r="B93" s="53" t="s">
         <v>72</v>
       </c>
       <c r="C93" s="17"/>
@@ -3231,9 +3274,9 @@
       </c>
       <c r="F93" s="17"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="43"/>
-      <c r="B94" s="43"/>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A94" s="54"/>
+      <c r="B94" s="54"/>
       <c r="C94" s="17"/>
       <c r="D94" s="17" t="s">
         <v>53</v>
@@ -3243,9 +3286,9 @@
       </c>
       <c r="F94" s="17"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="43"/>
-      <c r="B95" s="43"/>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A95" s="54"/>
+      <c r="B95" s="54"/>
       <c r="C95" s="17"/>
       <c r="D95" s="17"/>
       <c r="E95" s="17" t="s">
@@ -3253,9 +3296,9 @@
       </c>
       <c r="F95" s="17"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="43"/>
-      <c r="B96" s="43"/>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A96" s="54"/>
+      <c r="B96" s="54"/>
       <c r="C96" s="17"/>
       <c r="D96" s="17"/>
       <c r="E96" s="17" t="s">
@@ -3263,9 +3306,9 @@
       </c>
       <c r="F96" s="17"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="43"/>
-      <c r="B97" s="43"/>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A97" s="54"/>
+      <c r="B97" s="54"/>
       <c r="C97" s="17"/>
       <c r="D97" s="17"/>
       <c r="E97" s="17" t="s">
@@ -3273,11 +3316,11 @@
       </c>
       <c r="F97" s="17"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="42">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98" s="53">
         <v>42</v>
       </c>
-      <c r="B98" s="42" t="s">
+      <c r="B98" s="53" t="s">
         <v>74</v>
       </c>
       <c r="C98" s="17"/>
@@ -3289,9 +3332,9 @@
       </c>
       <c r="F98" s="17"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="43"/>
-      <c r="B99" s="43"/>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99" s="54"/>
+      <c r="B99" s="54"/>
       <c r="C99" s="17"/>
       <c r="D99" s="17" t="s">
         <v>53</v>
@@ -3301,9 +3344,9 @@
       </c>
       <c r="F99" s="17"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="43"/>
-      <c r="B100" s="43"/>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A100" s="54"/>
+      <c r="B100" s="54"/>
       <c r="C100" s="17"/>
       <c r="D100" s="17"/>
       <c r="E100" s="17" t="s">
@@ -3311,9 +3354,9 @@
       </c>
       <c r="F100" s="17"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="43"/>
-      <c r="B101" s="43"/>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A101" s="54"/>
+      <c r="B101" s="54"/>
       <c r="C101" s="17"/>
       <c r="D101" s="17"/>
       <c r="E101" s="17" t="s">
@@ -3321,9 +3364,9 @@
       </c>
       <c r="F101" s="17"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="43"/>
-      <c r="B102" s="43"/>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A102" s="54"/>
+      <c r="B102" s="54"/>
       <c r="C102" s="17"/>
       <c r="D102" s="17"/>
       <c r="E102" s="17" t="s">
@@ -3331,11 +3374,11 @@
       </c>
       <c r="F102" s="17"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="42">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A103" s="53">
         <v>43</v>
       </c>
-      <c r="B103" s="42" t="s">
+      <c r="B103" s="53" t="s">
         <v>75</v>
       </c>
       <c r="C103" s="17" t="s">
@@ -3349,9 +3392,9 @@
       </c>
       <c r="F103" s="17"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="43"/>
-      <c r="B104" s="43"/>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A104" s="54"/>
+      <c r="B104" s="54"/>
       <c r="C104" s="17"/>
       <c r="D104" s="17" t="s">
         <v>78</v>
@@ -3361,9 +3404,9 @@
       </c>
       <c r="F104" s="17"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="43"/>
-      <c r="B105" s="43"/>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A105" s="54"/>
+      <c r="B105" s="54"/>
       <c r="C105" s="17"/>
       <c r="D105" s="17"/>
       <c r="E105" s="17" t="s">
@@ -3371,9 +3414,9 @@
       </c>
       <c r="F105" s="17"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="43"/>
-      <c r="B106" s="43"/>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A106" s="54"/>
+      <c r="B106" s="54"/>
       <c r="C106" s="17"/>
       <c r="D106" s="17"/>
       <c r="E106" s="17" t="s">
@@ -3381,9 +3424,9 @@
       </c>
       <c r="F106" s="17"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="43"/>
-      <c r="B107" s="43"/>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A107" s="54"/>
+      <c r="B107" s="54"/>
       <c r="C107" s="17"/>
       <c r="D107" s="17"/>
       <c r="E107" s="17" t="s">
@@ -3391,11 +3434,11 @@
       </c>
       <c r="F107" s="17"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="42">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A108" s="53">
         <v>44</v>
       </c>
-      <c r="B108" s="60">
+      <c r="B108" s="59">
         <v>43474</v>
       </c>
       <c r="C108" s="17"/>
@@ -3407,9 +3450,9 @@
       </c>
       <c r="F108" s="17"/>
     </row>
-    <row r="109" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="43"/>
-      <c r="B109" s="61"/>
+    <row r="109" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="54"/>
+      <c r="B109" s="60"/>
       <c r="C109" s="17"/>
       <c r="D109" s="17" t="s">
         <v>80</v>
@@ -3419,9 +3462,9 @@
       </c>
       <c r="F109" s="17"/>
     </row>
-    <row r="110" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="43"/>
-      <c r="B110" s="61"/>
+    <row r="110" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="54"/>
+      <c r="B110" s="60"/>
       <c r="C110" s="17"/>
       <c r="D110" s="17"/>
       <c r="E110" s="17" t="s">
@@ -3429,9 +3472,9 @@
       </c>
       <c r="F110" s="17"/>
     </row>
-    <row r="111" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="43"/>
-      <c r="B111" s="61"/>
+    <row r="111" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="54"/>
+      <c r="B111" s="60"/>
       <c r="C111" s="17"/>
       <c r="D111" s="17"/>
       <c r="E111" s="17" t="s">
@@ -3439,9 +3482,9 @@
       </c>
       <c r="F111" s="17"/>
     </row>
-    <row r="112" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="43"/>
-      <c r="B112" s="62"/>
+    <row r="112" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="54"/>
+      <c r="B112" s="61"/>
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="17" t="s">
@@ -3449,11 +3492,11 @@
       </c>
       <c r="F112" s="17"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="42">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A113" s="53">
         <v>45</v>
       </c>
-      <c r="B113" s="42" t="s">
+      <c r="B113" s="53" t="s">
         <v>84</v>
       </c>
       <c r="C113" s="17" t="s">
@@ -3469,9 +3512,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="43"/>
-      <c r="B114" s="43"/>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A114" s="54"/>
+      <c r="B114" s="54"/>
       <c r="C114" s="17"/>
       <c r="D114" s="17" t="s">
         <v>58</v>
@@ -3481,9 +3524,9 @@
       </c>
       <c r="F114" s="17"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="43"/>
-      <c r="B115" s="43"/>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A115" s="54"/>
+      <c r="B115" s="54"/>
       <c r="C115" s="17"/>
       <c r="D115" s="17"/>
       <c r="E115" s="17" t="s">
@@ -3491,9 +3534,9 @@
       </c>
       <c r="F115" s="17"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="43"/>
-      <c r="B116" s="43"/>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A116" s="54"/>
+      <c r="B116" s="54"/>
       <c r="C116" s="17"/>
       <c r="D116" s="17"/>
       <c r="E116" s="17" t="s">
@@ -3501,9 +3544,9 @@
       </c>
       <c r="F116" s="17"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="43"/>
-      <c r="B117" s="43"/>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A117" s="54"/>
+      <c r="B117" s="54"/>
       <c r="C117" s="17"/>
       <c r="D117" s="17"/>
       <c r="E117" s="17" t="s">
@@ -3511,9 +3554,9 @@
       </c>
       <c r="F117" s="17"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="43"/>
-      <c r="B118" s="43"/>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A118" s="54"/>
+      <c r="B118" s="54"/>
       <c r="C118" s="17"/>
       <c r="D118" s="17"/>
       <c r="E118" s="17" t="s">
@@ -3521,9 +3564,9 @@
       </c>
       <c r="F118" s="17"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="44"/>
-      <c r="B119" s="44"/>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A119" s="55"/>
+      <c r="B119" s="55"/>
       <c r="C119" s="17"/>
       <c r="D119" s="17"/>
       <c r="E119" s="17" t="s">
@@ -3531,11 +3574,11 @@
       </c>
       <c r="F119" s="17"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="42">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A120" s="53">
         <v>46</v>
       </c>
-      <c r="B120" s="42" t="s">
+      <c r="B120" s="53" t="s">
         <v>100</v>
       </c>
       <c r="C120" s="17" t="s">
@@ -3549,9 +3592,9 @@
       </c>
       <c r="F120" s="17"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="43"/>
-      <c r="B121" s="43"/>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A121" s="54"/>
+      <c r="B121" s="54"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17" t="s">
         <v>58</v>
@@ -3561,9 +3604,9 @@
       </c>
       <c r="F121" s="17"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="43"/>
-      <c r="B122" s="43"/>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A122" s="54"/>
+      <c r="B122" s="54"/>
       <c r="C122" s="17"/>
       <c r="D122" s="17"/>
       <c r="E122" s="17" t="s">
@@ -3571,9 +3614,9 @@
       </c>
       <c r="F122" s="17"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="43"/>
-      <c r="B123" s="43"/>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A123" s="54"/>
+      <c r="B123" s="54"/>
       <c r="C123" s="17"/>
       <c r="D123" s="17"/>
       <c r="E123" s="17" t="s">
@@ -3581,9 +3624,9 @@
       </c>
       <c r="F123" s="17"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="43"/>
-      <c r="B124" s="43"/>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A124" s="54"/>
+      <c r="B124" s="54"/>
       <c r="C124" s="17"/>
       <c r="D124" s="17"/>
       <c r="E124" s="17" t="s">
@@ -3591,9 +3634,9 @@
       </c>
       <c r="F124" s="17"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="43"/>
-      <c r="B125" s="43"/>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A125" s="54"/>
+      <c r="B125" s="54"/>
       <c r="C125" s="17"/>
       <c r="D125" s="17"/>
       <c r="E125" s="17" t="s">
@@ -3601,9 +3644,9 @@
       </c>
       <c r="F125" s="17"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="44"/>
-      <c r="B126" s="44"/>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A126" s="55"/>
+      <c r="B126" s="55"/>
       <c r="C126" s="17"/>
       <c r="D126" s="17"/>
       <c r="E126" s="17" t="s">
@@ -3611,11 +3654,11 @@
       </c>
       <c r="F126" s="17"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="42">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A127" s="53">
         <v>47</v>
       </c>
-      <c r="B127" s="42" t="s">
+      <c r="B127" s="53" t="s">
         <v>99</v>
       </c>
       <c r="C127" s="17"/>
@@ -3627,9 +3670,9 @@
       </c>
       <c r="F127" s="17"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="43"/>
-      <c r="B128" s="43"/>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A128" s="54"/>
+      <c r="B128" s="54"/>
       <c r="C128" s="17"/>
       <c r="D128" s="17" t="s">
         <v>58</v>
@@ -3639,9 +3682,9 @@
       </c>
       <c r="F128" s="17"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="43"/>
-      <c r="B129" s="43"/>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A129" s="54"/>
+      <c r="B129" s="54"/>
       <c r="C129" s="17"/>
       <c r="D129" s="17"/>
       <c r="E129" s="17" t="s">
@@ -3649,9 +3692,9 @@
       </c>
       <c r="F129" s="17"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="43"/>
-      <c r="B130" s="43"/>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A130" s="54"/>
+      <c r="B130" s="54"/>
       <c r="C130" s="17"/>
       <c r="D130" s="17"/>
       <c r="E130" s="17" t="s">
@@ -3659,9 +3702,9 @@
       </c>
       <c r="F130" s="17"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="43"/>
-      <c r="B131" s="43"/>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A131" s="54"/>
+      <c r="B131" s="54"/>
       <c r="C131" s="17"/>
       <c r="D131" s="17"/>
       <c r="E131" s="17" t="s">
@@ -3669,9 +3712,9 @@
       </c>
       <c r="F131" s="17"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="44"/>
-      <c r="B132" s="44"/>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A132" s="55"/>
+      <c r="B132" s="55"/>
       <c r="C132" s="17"/>
       <c r="D132" s="17"/>
       <c r="E132" s="17" t="s">
@@ -3679,11 +3722,11 @@
       </c>
       <c r="F132" s="17"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="42">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A133" s="53">
         <v>48</v>
       </c>
-      <c r="B133" s="42" t="s">
+      <c r="B133" s="53" t="s">
         <v>98</v>
       </c>
       <c r="C133" s="17"/>
@@ -3697,9 +3740,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" s="43"/>
-      <c r="B134" s="43"/>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A134" s="54"/>
+      <c r="B134" s="54"/>
       <c r="C134" s="17"/>
       <c r="D134" s="17" t="s">
         <v>58</v>
@@ -3709,9 +3752,9 @@
       </c>
       <c r="F134" s="17"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="43"/>
-      <c r="B135" s="43"/>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A135" s="54"/>
+      <c r="B135" s="54"/>
       <c r="C135" s="17"/>
       <c r="D135" s="17" t="s">
         <v>93</v>
@@ -3721,9 +3764,9 @@
       </c>
       <c r="F135" s="17"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" s="43"/>
-      <c r="B136" s="43"/>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A136" s="54"/>
+      <c r="B136" s="54"/>
       <c r="C136" s="17"/>
       <c r="D136" s="17"/>
       <c r="E136" s="17" t="s">
@@ -3731,9 +3774,9 @@
       </c>
       <c r="F136" s="17"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="43"/>
-      <c r="B137" s="43"/>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A137" s="54"/>
+      <c r="B137" s="54"/>
       <c r="C137" s="17"/>
       <c r="D137" s="17"/>
       <c r="E137" s="17" t="s">
@@ -3741,9 +3784,9 @@
       </c>
       <c r="F137" s="17"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" s="44"/>
-      <c r="B138" s="44"/>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A138" s="55"/>
+      <c r="B138" s="55"/>
       <c r="C138" s="17"/>
       <c r="D138" s="17"/>
       <c r="E138" s="17" t="s">
@@ -3751,25 +3794,25 @@
       </c>
       <c r="F138" s="17"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" s="30">
         <v>49</v>
       </c>
       <c r="B139" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="C139" s="53" t="s">
+      <c r="C139" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="D139" s="53"/>
-      <c r="E139" s="53"/>
-      <c r="F139" s="53"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="42">
+      <c r="D139" s="52"/>
+      <c r="E139" s="52"/>
+      <c r="F139" s="52"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A140" s="53">
         <v>50</v>
       </c>
-      <c r="B140" s="42" t="s">
+      <c r="B140" s="53" t="s">
         <v>96</v>
       </c>
       <c r="C140" s="17" t="s">
@@ -3783,9 +3826,9 @@
       </c>
       <c r="F140" s="17"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="43"/>
-      <c r="B141" s="43"/>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A141" s="54"/>
+      <c r="B141" s="54"/>
       <c r="C141" s="17"/>
       <c r="D141" s="17" t="s">
         <v>58</v>
@@ -3795,9 +3838,9 @@
       </c>
       <c r="F141" s="17"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" s="43"/>
-      <c r="B142" s="43"/>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A142" s="54"/>
+      <c r="B142" s="54"/>
       <c r="C142" s="17"/>
       <c r="D142" s="17" t="s">
         <v>93</v>
@@ -3807,9 +3850,9 @@
       </c>
       <c r="F142" s="17"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="43"/>
-      <c r="B143" s="43"/>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A143" s="54"/>
+      <c r="B143" s="54"/>
       <c r="C143" s="17"/>
       <c r="D143" s="17"/>
       <c r="E143" s="17" t="s">
@@ -3817,9 +3860,9 @@
       </c>
       <c r="F143" s="17"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" s="43"/>
-      <c r="B144" s="43"/>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A144" s="54"/>
+      <c r="B144" s="54"/>
       <c r="C144" s="17"/>
       <c r="D144" s="17"/>
       <c r="E144" s="17" t="s">
@@ -3827,9 +3870,9 @@
       </c>
       <c r="F144" s="17"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="44"/>
-      <c r="B145" s="44"/>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A145" s="55"/>
+      <c r="B145" s="55"/>
       <c r="C145" s="17"/>
       <c r="D145" s="17"/>
       <c r="E145" s="17" t="s">
@@ -3837,11 +3880,11 @@
       </c>
       <c r="F145" s="17"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="42">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A146" s="53">
         <v>51</v>
       </c>
-      <c r="B146" s="42" t="s">
+      <c r="B146" s="53" t="s">
         <v>108</v>
       </c>
       <c r="C146" s="17"/>
@@ -3853,9 +3896,9 @@
       </c>
       <c r="F146" s="17"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="43"/>
-      <c r="B147" s="43"/>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A147" s="54"/>
+      <c r="B147" s="54"/>
       <c r="C147" s="17"/>
       <c r="D147" s="17" t="s">
         <v>109</v>
@@ -3865,9 +3908,9 @@
       </c>
       <c r="F147" s="17"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="43"/>
-      <c r="B148" s="43"/>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A148" s="54"/>
+      <c r="B148" s="54"/>
       <c r="C148" s="17"/>
       <c r="D148" s="17" t="s">
         <v>93</v>
@@ -3877,9 +3920,9 @@
       </c>
       <c r="F148" s="17"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="43"/>
-      <c r="B149" s="43"/>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A149" s="54"/>
+      <c r="B149" s="54"/>
       <c r="C149" s="17"/>
       <c r="D149" s="17"/>
       <c r="E149" s="17" t="s">
@@ -3887,9 +3930,9 @@
       </c>
       <c r="F149" s="17"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" s="43"/>
-      <c r="B150" s="43"/>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A150" s="54"/>
+      <c r="B150" s="54"/>
       <c r="C150" s="17"/>
       <c r="D150" s="17"/>
       <c r="E150" s="17" t="s">
@@ -3897,9 +3940,9 @@
       </c>
       <c r="F150" s="17"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="44"/>
-      <c r="B151" s="44"/>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A151" s="55"/>
+      <c r="B151" s="55"/>
       <c r="C151" s="17"/>
       <c r="D151" s="17"/>
       <c r="E151" s="17" t="s">
@@ -3907,11 +3950,11 @@
       </c>
       <c r="F151" s="17"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="42">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A152" s="53">
         <v>52</v>
       </c>
-      <c r="B152" s="57" t="s">
+      <c r="B152" s="58" t="s">
         <v>110</v>
       </c>
       <c r="C152" s="17"/>
@@ -3922,9 +3965,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="43"/>
-      <c r="B153" s="57"/>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A153" s="54"/>
+      <c r="B153" s="58"/>
       <c r="C153" s="17"/>
       <c r="D153" s="17" t="s">
         <v>111</v>
@@ -3933,44 +3976,44 @@
         <v>79</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="43"/>
-      <c r="B154" s="57"/>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A154" s="54"/>
+      <c r="B154" s="58"/>
       <c r="C154" s="17"/>
       <c r="D154" s="17"/>
       <c r="E154" s="17" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="43"/>
-      <c r="B155" s="57"/>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A155" s="54"/>
+      <c r="B155" s="58"/>
       <c r="C155" s="17"/>
       <c r="D155" s="17"/>
       <c r="E155" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" s="43"/>
-      <c r="B156" s="57"/>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A156" s="54"/>
+      <c r="B156" s="58"/>
       <c r="C156" s="17"/>
       <c r="D156" s="17"/>
       <c r="E156" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="44"/>
-      <c r="B157" s="57"/>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A157" s="55"/>
+      <c r="B157" s="58"/>
       <c r="C157" s="17"/>
       <c r="D157" s="17"/>
       <c r="E157" s="17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="56">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A158" s="50">
         <v>53</v>
       </c>
       <c r="B158" s="13" t="s">
@@ -3986,8 +4029,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" s="55"/>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A159" s="51"/>
       <c r="D159" s="17" t="s">
         <v>111</v>
       </c>
@@ -3995,32 +4038,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" s="55"/>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A160" s="51"/>
       <c r="E160" s="17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161" s="55"/>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A161" s="51"/>
       <c r="E161" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A162" s="55"/>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A162" s="51"/>
       <c r="E162" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A163" s="55"/>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A163" s="51"/>
       <c r="E163" s="17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="55">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A164" s="51">
         <v>54</v>
       </c>
       <c r="B164" s="13" t="s">
@@ -4036,8 +4079,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A165" s="55"/>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A165" s="51"/>
       <c r="D165" s="17" t="s">
         <v>93</v>
       </c>
@@ -4045,61 +4088,475 @@
         <v>79</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A166" s="55"/>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A166" s="51"/>
       <c r="E166" s="17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A167" s="55"/>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A167" s="51"/>
       <c r="E167" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A168" s="55"/>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A168" s="51"/>
       <c r="E168" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" s="55"/>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A169" s="51"/>
       <c r="E169" s="17" t="s">
         <v>95</v>
       </c>
     </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B170" s="45">
+        <v>43475</v>
+      </c>
+      <c r="D170" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E170" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B171" s="42"/>
+      <c r="E171" s="17"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B172" s="42"/>
+      <c r="E172" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B173" s="42"/>
+      <c r="E173" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B174" s="45">
+        <v>43534</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E174" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D175" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E175" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D176" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E176" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E177" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E178" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E179" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B180" s="45">
+        <v>43595</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E180" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D181" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E181" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D182" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E182" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A183" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="B183" s="49"/>
+      <c r="C183" s="49"/>
+      <c r="D183" s="49"/>
+      <c r="E183" s="49"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B184" s="46">
+        <v>43746</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E184" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D185" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E185" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D186" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E186" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B187" s="47">
+        <v>43748</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E187" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D188" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D189" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B190" s="47">
+        <v>43750</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E190" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D191" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D192" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B193" s="47">
+        <v>43751</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E193" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D194" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D195" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B196" s="47">
+        <v>43753</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E196" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D197" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E198" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B199" s="47">
+        <v>43755</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D200" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B201" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D202" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D203" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E204" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E205" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B206" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D207" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E208" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E209" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E210" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B211" s="47">
+        <v>43760</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D212" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B213" s="47">
+        <v>43762</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D214" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B215" s="47">
+        <v>43764</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D216" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D217" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E218" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E219" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="C48:F169"/>
-  <mergeCells count="53">
-    <mergeCell ref="B152:B157"/>
-    <mergeCell ref="A152:A157"/>
-    <mergeCell ref="A158:A163"/>
-    <mergeCell ref="A164:A169"/>
-    <mergeCell ref="C139:F139"/>
-    <mergeCell ref="B140:B145"/>
-    <mergeCell ref="A140:A145"/>
-    <mergeCell ref="B133:B138"/>
-    <mergeCell ref="B127:B132"/>
-    <mergeCell ref="A127:A132"/>
-    <mergeCell ref="A133:A138"/>
+  <autoFilter ref="C48:F169" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="54">
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A52:A53"/>
     <mergeCell ref="A64:A65"/>
     <mergeCell ref="B64:B65"/>
-    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A133:A138"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="A108:A112"/>
+    <mergeCell ref="A113:A119"/>
+    <mergeCell ref="B120:B126"/>
+    <mergeCell ref="A77:A79"/>
     <mergeCell ref="A80:A83"/>
     <mergeCell ref="A84:A87"/>
     <mergeCell ref="B84:B87"/>
     <mergeCell ref="B80:B83"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="A120:A126"/>
     <mergeCell ref="A74:A76"/>
     <mergeCell ref="B74:B76"/>
     <mergeCell ref="B77:B79"/>
-    <mergeCell ref="A120:A126"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B152:B157"/>
+    <mergeCell ref="A152:A157"/>
     <mergeCell ref="B113:B119"/>
     <mergeCell ref="A88:A91"/>
     <mergeCell ref="A93:A97"/>
@@ -4109,22 +4566,17 @@
     <mergeCell ref="B98:B102"/>
     <mergeCell ref="B93:B97"/>
     <mergeCell ref="B88:B91"/>
+    <mergeCell ref="B133:B138"/>
+    <mergeCell ref="B127:B132"/>
+    <mergeCell ref="A127:A132"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="A158:A163"/>
+    <mergeCell ref="A164:A169"/>
+    <mergeCell ref="C139:F139"/>
+    <mergeCell ref="B140:B145"/>
+    <mergeCell ref="A140:A145"/>
     <mergeCell ref="A146:A151"/>
     <mergeCell ref="B146:B151"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="A108:A112"/>
-    <mergeCell ref="A113:A119"/>
-    <mergeCell ref="B120:B126"/>
-    <mergeCell ref="A77:A79"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4136,19 +4588,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:G24"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="90" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.59375" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="11.5703125" style="1"/>
+    <col min="1" max="16384" width="11.59375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
@@ -4158,7 +4610,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
@@ -4178,7 +4630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B4" s="5">
         <v>1</v>
       </c>
@@ -4198,7 +4650,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -4218,7 +4670,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -4238,7 +4690,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -4258,7 +4710,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B8" s="5">
         <v>5</v>
       </c>
@@ -4270,7 +4722,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B9" s="5">
         <v>6</v>
       </c>
@@ -4282,7 +4734,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B10" s="5">
         <v>7</v>
       </c>
@@ -4294,7 +4746,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B11" s="5">
         <v>8</v>
       </c>
@@ -4306,7 +4758,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B12" s="5">
         <v>9</v>
       </c>
@@ -4318,7 +4770,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B13" s="5">
         <v>10</v>
       </c>
@@ -4330,7 +4782,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B14" s="5">
         <v>11</v>
       </c>
@@ -4342,7 +4794,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B15" s="5">
         <v>12</v>
       </c>
@@ -4356,7 +4808,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B16" s="5">
         <v>13</v>
       </c>
@@ -4370,7 +4822,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="5">
         <v>14</v>
       </c>
@@ -4382,7 +4834,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="5">
         <v>15</v>
       </c>
@@ -4394,7 +4846,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B19" s="5">
         <v>16</v>
       </c>
@@ -4404,7 +4856,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B20" s="5">
         <v>17</v>
       </c>
@@ -4414,7 +4866,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B21" s="5">
         <v>18</v>
       </c>
@@ -4424,7 +4876,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B22" s="5">
         <v>19</v>
       </c>
@@ -4434,7 +4886,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="5">
         <v>20</v>
       </c>
@@ -4444,7 +4896,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="5">
         <v>21</v>
       </c>
@@ -4465,21 +4917,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D11" sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.23828125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -4492,13 +4944,13 @@
       <c r="D1" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -4522,7 +4974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="21">
         <v>2</v>
       </c>
@@ -4546,7 +4998,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="21">
         <v>3</v>
       </c>
@@ -4570,7 +5022,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="21">
         <v>4</v>
       </c>
@@ -4585,7 +5037,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="21">
         <v>5</v>
       </c>
@@ -4600,7 +5052,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -4615,7 +5067,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="21">
         <v>7</v>
       </c>
@@ -4630,7 +5082,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="21">
         <v>8</v>
       </c>
@@ -4645,7 +5097,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -4655,38 +5107,38 @@
       </c>
       <c r="E10" s="15"/>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E12" s="15"/>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:9" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="58">
+    <row r="15" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="43">
         <v>6</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="59">
+      <c r="C15" s="44">
         <v>19</v>
       </c>
-      <c r="D15" s="59">
+      <c r="D15" s="44">
         <f>C15*50</f>
         <v>950</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E16" s="15"/>
     </row>
   </sheetData>
@@ -4699,7 +5151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4709,12 +5161,12 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.59375" defaultRowHeight="27.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="10"/>
-    <col min="2" max="2" width="45.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.28515625" style="12" customWidth="1"/>
-    <col min="4" max="16384" width="11.5703125" style="12"/>
+    <col min="1" max="1" width="11.59375" style="10"/>
+    <col min="2" max="2" width="45.578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.3203125" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="11.59375" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.4">
@@ -4728,7 +5180,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32">
         <v>1</v>
       </c>
@@ -4737,7 +5189,7 @@
       </c>
       <c r="C2" s="34"/>
     </row>
-    <row r="3" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32">
         <v>2</v>
       </c>
@@ -4746,7 +5198,7 @@
       </c>
       <c r="C3" s="34"/>
     </row>
-    <row r="4" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32">
         <v>3</v>
       </c>
@@ -4755,7 +5207,7 @@
       </c>
       <c r="C4" s="34"/>
     </row>
-    <row r="5" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32">
         <v>4</v>
       </c>
@@ -4764,7 +5216,7 @@
       </c>
       <c r="C5" s="34"/>
     </row>
-    <row r="6" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="32">
         <v>5</v>
       </c>
@@ -4773,7 +5225,7 @@
       </c>
       <c r="C6" s="34"/>
     </row>
-    <row r="7" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="32">
         <v>6</v>
       </c>
@@ -4782,7 +5234,7 @@
       </c>
       <c r="C7" s="34"/>
     </row>
-    <row r="8" spans="1:3" ht="96.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="32">
         <v>7</v>
       </c>
@@ -4791,7 +5243,7 @@
       </c>
       <c r="C8" s="34"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="32">
         <v>8</v>
       </c>
@@ -4800,7 +5252,7 @@
       </c>
       <c r="C9" s="34"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="32">
         <v>9</v>
       </c>

--- a/Crew_infinty_details.xlsx
+++ b/Crew_infinty_details.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vetriselvan.kuppan\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{CA18089A-8037-2745-80AF-20704AC66581}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="539" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="539" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="session details" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'session details'!$C$48:$F$169</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="149">
   <si>
     <t>SI No.</t>
   </si>
@@ -354,9 +353,6 @@
     <t>payment pending</t>
   </si>
   <si>
-    <t>kavya-19</t>
-  </si>
-  <si>
     <t>classes</t>
   </si>
   <si>
@@ -423,9 +419,6 @@
     <t>kalpana</t>
   </si>
   <si>
-    <t>06/10/2019....leave for Palani</t>
-  </si>
-  <si>
     <t>19-oct_19</t>
   </si>
   <si>
@@ -439,12 +432,60 @@
   </si>
   <si>
     <t>kalpana-</t>
+  </si>
+  <si>
+    <t>DIWALI LEAVE</t>
+  </si>
+  <si>
+    <t>kiran</t>
+  </si>
+  <si>
+    <t>mohan-</t>
+  </si>
+  <si>
+    <t>Dinesh-</t>
+  </si>
+  <si>
+    <t>Rain leave</t>
+  </si>
+  <si>
+    <t>Palani</t>
+  </si>
+  <si>
+    <t>November Month</t>
+  </si>
+  <si>
+    <t>shiva--750</t>
+  </si>
+  <si>
+    <t>navin--750</t>
+  </si>
+  <si>
+    <t>manoj--300</t>
+  </si>
+  <si>
+    <t>mohan--150</t>
+  </si>
+  <si>
+    <t>dinesh--150</t>
+  </si>
+  <si>
+    <t>kalpana--750</t>
+  </si>
+  <si>
+    <t>surya-750</t>
+  </si>
+  <si>
+    <t>shreya-400</t>
+  </si>
+  <si>
+    <t>navin aug-400</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
@@ -1042,7 +1083,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
@@ -1135,62 +1176,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="17" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="17" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" xfId="42" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="13" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="14" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="15" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="15" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="16" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1211,9 +1207,67 @@
     <xf numFmtId="0" fontId="17" fillId="17" borderId="13" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="14" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="15" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="15" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="16" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="13" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="17" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="17" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="17" fillId="18" borderId="13" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="13" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="13" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="18" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="17" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="19" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1243,7 +1297,7 @@
     <cellStyle name="Bad" xfId="25" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="26" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="27" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Excel Built-in Normal" xfId="42" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="42"/>
     <cellStyle name="Explanatory Text" xfId="28" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="29" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="30" builtinId="16" customBuiltin="1"/>
@@ -1637,34 +1691,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q219"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B201" zoomScale="90" workbookViewId="0">
-      <selection activeCell="B212" sqref="B212"/>
+    <sheetView topLeftCell="A81" zoomScale="90" workbookViewId="0">
+      <selection activeCell="A238" sqref="A238"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.59375" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.59375" style="13"/>
-    <col min="3" max="4" width="11.59375" style="1"/>
-    <col min="5" max="5" width="17.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.59375" style="1"/>
-    <col min="7" max="7" width="21.03515625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.59375" style="1"/>
+    <col min="1" max="2" width="11.5703125" style="13"/>
+    <col min="3" max="4" width="11.5703125" style="1"/>
+    <col min="5" max="5" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="1"/>
+    <col min="7" max="7" width="21" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64"/>
-    </row>
-    <row r="2" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
@@ -1684,7 +1738,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -1698,7 +1752,7 @@
       <c r="E3" s="18"/>
       <c r="F3" s="17"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -1706,7 +1760,7 @@
       <c r="E4" s="18"/>
       <c r="F4" s="17"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <v>2</v>
       </c>
@@ -1724,7 +1778,7 @@
       </c>
       <c r="F5" s="17"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="18"/>
@@ -1735,7 +1789,7 @@
       <c r="F6" s="17"/>
       <c r="I6"/>
     </row>
-    <row r="7" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <v>3</v>
       </c>
@@ -1754,7 +1808,7 @@
       <c r="F7" s="17"/>
       <c r="I7"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
       <c r="B8" s="20"/>
       <c r="C8" s="16"/>
@@ -1773,7 +1827,7 @@
       <c r="P8"/>
       <c r="Q8"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>4</v>
       </c>
@@ -1798,7 +1852,7 @@
       <c r="P9"/>
       <c r="Q9"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
         <v>5</v>
       </c>
@@ -1823,7 +1877,7 @@
       <c r="P10"/>
       <c r="Q10"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
       <c r="B11" s="19"/>
       <c r="C11" s="18"/>
@@ -1843,7 +1897,7 @@
       <c r="P11"/>
       <c r="Q11"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
         <v>6</v>
       </c>
@@ -1869,7 +1923,7 @@
       <c r="P12"/>
       <c r="Q12"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -1889,7 +1943,7 @@
       <c r="P13"/>
       <c r="Q13"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="18"/>
       <c r="B14" s="19"/>
       <c r="C14" s="21"/>
@@ -1908,7 +1962,7 @@
       <c r="P14"/>
       <c r="Q14"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
         <v>7</v>
       </c>
@@ -1931,7 +1985,7 @@
       <c r="P15"/>
       <c r="Q15"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
       <c r="B16" s="25"/>
       <c r="C16" s="21"/>
@@ -1950,7 +2004,7 @@
       <c r="P16"/>
       <c r="Q16"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
       <c r="B17" s="25"/>
       <c r="C17" s="21"/>
@@ -1969,7 +2023,7 @@
       <c r="P17"/>
       <c r="Q17"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="B18" s="25"/>
       <c r="C18" s="21"/>
@@ -1988,7 +2042,7 @@
       <c r="P18"/>
       <c r="Q18"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="18">
         <v>8</v>
       </c>
@@ -2010,7 +2064,7 @@
       <c r="P19"/>
       <c r="Q19"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="18"/>
       <c r="B20" s="25"/>
       <c r="C20" s="21"/>
@@ -2028,7 +2082,7 @@
       <c r="P20"/>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
       <c r="B21" s="25"/>
       <c r="C21" s="21"/>
@@ -2046,7 +2100,7 @@
       <c r="P21"/>
       <c r="Q21"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
         <v>9</v>
       </c>
@@ -2072,7 +2126,7 @@
       <c r="P22"/>
       <c r="Q22"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
       <c r="B23" s="19"/>
       <c r="C23" s="21"/>
@@ -2092,7 +2146,7 @@
       <c r="P23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="18"/>
       <c r="B24" s="19"/>
       <c r="C24" s="21"/>
@@ -2110,7 +2164,7 @@
       <c r="P24"/>
       <c r="Q24"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
       <c r="B25" s="19"/>
       <c r="C25" s="21"/>
@@ -2128,7 +2182,7 @@
       <c r="P25"/>
       <c r="Q25"/>
     </row>
-    <row r="26" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18">
         <v>10</v>
       </c>
@@ -2154,7 +2208,7 @@
       <c r="P26"/>
       <c r="Q26"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
       <c r="B27" s="20"/>
       <c r="C27" s="18"/>
@@ -2172,7 +2226,7 @@
       <c r="P27"/>
       <c r="Q27"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="18"/>
       <c r="B28" s="20"/>
       <c r="C28" s="18"/>
@@ -2190,7 +2244,7 @@
       <c r="P28"/>
       <c r="Q28"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="18"/>
       <c r="B29" s="20"/>
       <c r="C29" s="18"/>
@@ -2208,7 +2262,7 @@
       <c r="P29"/>
       <c r="Q29"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="18">
         <v>11</v>
       </c>
@@ -2230,7 +2284,7 @@
       <c r="P30"/>
       <c r="Q30"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="18">
         <v>12</v>
       </c>
@@ -2252,7 +2306,7 @@
       <c r="P31"/>
       <c r="Q31"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="18">
         <v>13</v>
       </c>
@@ -2274,7 +2328,7 @@
       <c r="P32"/>
       <c r="Q32"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="18">
         <v>14</v>
       </c>
@@ -2297,7 +2351,7 @@
       <c r="P33"/>
       <c r="Q33"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="18"/>
       <c r="B34" s="26"/>
       <c r="C34" s="18"/>
@@ -2314,7 +2368,7 @@
       <c r="P34"/>
       <c r="Q34"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
       <c r="B35" s="26"/>
       <c r="C35" s="18"/>
@@ -2331,7 +2385,7 @@
       <c r="P35"/>
       <c r="Q35"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="18"/>
       <c r="B36" s="26"/>
       <c r="C36" s="18"/>
@@ -2350,7 +2404,7 @@
       <c r="P36"/>
       <c r="Q36"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="18"/>
       <c r="B37" s="26"/>
       <c r="C37" s="18"/>
@@ -2367,7 +2421,7 @@
       <c r="P37"/>
       <c r="Q37"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="18">
         <v>16</v>
       </c>
@@ -2394,7 +2448,7 @@
       <c r="P38"/>
       <c r="Q38"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
       <c r="C39" s="22"/>
@@ -2415,7 +2469,7 @@
       <c r="P39"/>
       <c r="Q39"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
       <c r="C40" s="22"/>
@@ -2434,7 +2488,7 @@
       <c r="P40"/>
       <c r="Q40"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="18">
         <v>17</v>
       </c>
@@ -2459,7 +2513,7 @@
       <c r="P41"/>
       <c r="Q41"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="18"/>
       <c r="B42" s="21"/>
       <c r="C42" s="22"/>
@@ -2480,7 +2534,7 @@
       <c r="P42"/>
       <c r="Q42"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="18"/>
       <c r="B43" s="21"/>
       <c r="C43" s="22"/>
@@ -2501,7 +2555,7 @@
       <c r="P43"/>
       <c r="Q43"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="18">
         <v>18</v>
       </c>
@@ -2530,7 +2584,7 @@
       <c r="P44"/>
       <c r="Q44"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="18"/>
       <c r="B45" s="21"/>
       <c r="C45" s="22"/>
@@ -2548,7 +2602,7 @@
       <c r="P45"/>
       <c r="Q45"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
       <c r="C46" s="22"/>
@@ -2564,14 +2618,14 @@
       <c r="P46"/>
       <c r="Q46"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A47" s="67" t="s">
-        <v>126</v>
-      </c>
-      <c r="B47" s="67"/>
-      <c r="C47" s="67"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" s="52"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
       <c r="F47" s="17"/>
       <c r="L47"/>
       <c r="M47"/>
@@ -2580,7 +2634,7 @@
       <c r="P47"/>
       <c r="Q47"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="18">
         <v>19</v>
       </c>
@@ -2608,7 +2662,7 @@
       <c r="P48"/>
       <c r="Q48"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="18">
         <v>20</v>
       </c>
@@ -2630,11 +2684,11 @@
       <c r="P49"/>
       <c r="Q49"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A50" s="53">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" s="45">
         <v>21</v>
       </c>
-      <c r="B50" s="53" t="s">
+      <c r="B50" s="45" t="s">
         <v>42</v>
       </c>
       <c r="C50" s="17"/>
@@ -2650,9 +2704,9 @@
       <c r="P50"/>
       <c r="Q50"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A51" s="54"/>
-      <c r="B51" s="54"/>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" s="46"/>
+      <c r="B51" s="46"/>
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
       <c r="E51" s="22" t="s">
@@ -2666,11 +2720,11 @@
       <c r="P51"/>
       <c r="Q51"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A52" s="53">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52" s="45">
         <v>22</v>
       </c>
-      <c r="B52" s="53" t="s">
+      <c r="B52" s="45" t="s">
         <v>45</v>
       </c>
       <c r="C52" s="22" t="s">
@@ -2690,9 +2744,9 @@
       <c r="P52"/>
       <c r="Q52"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A53" s="54"/>
-      <c r="B53" s="54"/>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A53" s="46"/>
+      <c r="B53" s="46"/>
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
       <c r="E53" s="22" t="s">
@@ -2706,7 +2760,7 @@
       <c r="P53"/>
       <c r="Q53"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="18">
         <v>23</v>
       </c>
@@ -2730,7 +2784,7 @@
       <c r="P54"/>
       <c r="Q54"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="18">
         <v>24</v>
       </c>
@@ -2750,7 +2804,7 @@
       <c r="P55"/>
       <c r="Q55"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="18">
         <v>25</v>
       </c>
@@ -2770,7 +2824,7 @@
       <c r="P56"/>
       <c r="Q56"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="18">
         <v>26</v>
       </c>
@@ -2794,7 +2848,7 @@
       <c r="P57"/>
       <c r="Q57"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="18">
         <v>27</v>
       </c>
@@ -2818,11 +2872,11 @@
       <c r="P58"/>
       <c r="Q58"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A59" s="53">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A59" s="45">
         <v>28</v>
       </c>
-      <c r="B59" s="65">
+      <c r="B59" s="50">
         <v>43624</v>
       </c>
       <c r="C59" s="22"/>
@@ -2832,9 +2886,9 @@
       </c>
       <c r="F59" s="17"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A60" s="54"/>
-      <c r="B60" s="66"/>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A60" s="46"/>
+      <c r="B60" s="51"/>
       <c r="C60" s="22"/>
       <c r="D60" s="22"/>
       <c r="E60" s="22" t="s">
@@ -2842,7 +2896,7 @@
       </c>
       <c r="F60" s="17"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="18">
         <v>29</v>
       </c>
@@ -2856,11 +2910,11 @@
       <c r="E61" s="22"/>
       <c r="F61" s="17"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A62" s="53">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A62" s="45">
         <v>30</v>
       </c>
-      <c r="B62" s="65">
+      <c r="B62" s="50">
         <v>43746</v>
       </c>
       <c r="C62" s="22" t="s">
@@ -2874,9 +2928,9 @@
       </c>
       <c r="F62" s="17"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A63" s="54"/>
-      <c r="B63" s="66"/>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A63" s="46"/>
+      <c r="B63" s="51"/>
       <c r="C63" s="22"/>
       <c r="D63" s="22" t="s">
         <v>16</v>
@@ -2886,11 +2940,11 @@
       </c>
       <c r="F63" s="17"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A64" s="53">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A64" s="45">
         <v>31</v>
       </c>
-      <c r="B64" s="59">
+      <c r="B64" s="53">
         <v>43777</v>
       </c>
       <c r="C64" s="22" t="s">
@@ -2904,9 +2958,9 @@
       </c>
       <c r="F64" s="17"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A65" s="54"/>
-      <c r="B65" s="54"/>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="46"/>
+      <c r="B65" s="46"/>
       <c r="C65" s="17"/>
       <c r="D65" s="17" t="s">
         <v>56</v>
@@ -2916,11 +2970,11 @@
       </c>
       <c r="F65" s="17"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66" s="53">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="45">
         <v>32</v>
       </c>
-      <c r="B66" s="53" t="s">
+      <c r="B66" s="45" t="s">
         <v>59</v>
       </c>
       <c r="C66" s="17"/>
@@ -2930,9 +2984,9 @@
       </c>
       <c r="F66" s="17"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" s="54"/>
-      <c r="B67" s="54"/>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="46"/>
+      <c r="B67" s="46"/>
       <c r="C67" s="17"/>
       <c r="D67" s="17"/>
       <c r="E67" s="17" t="s">
@@ -2940,11 +2994,11 @@
       </c>
       <c r="F67" s="17"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68" s="53">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="45">
         <v>33</v>
       </c>
-      <c r="B68" s="53" t="s">
+      <c r="B68" s="45" t="s">
         <v>57</v>
       </c>
       <c r="C68" s="17"/>
@@ -2954,9 +3008,9 @@
       <c r="E68" s="17"/>
       <c r="F68" s="17"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A69" s="54"/>
-      <c r="B69" s="54"/>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="46"/>
+      <c r="B69" s="46"/>
       <c r="C69" s="17"/>
       <c r="D69" s="17" t="s">
         <v>69</v>
@@ -2964,9 +3018,9 @@
       <c r="E69" s="17"/>
       <c r="F69" s="17"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A70" s="54"/>
-      <c r="B70" s="54"/>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="46"/>
+      <c r="B70" s="46"/>
       <c r="C70" s="17"/>
       <c r="D70" s="17" t="s">
         <v>58</v>
@@ -2974,12 +3028,12 @@
       <c r="E70" s="17"/>
       <c r="F70" s="17"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A71" s="53">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="45">
         <v>34</v>
       </c>
-      <c r="B71" s="53" t="s">
-        <v>123</v>
+      <c r="B71" s="45" t="s">
+        <v>122</v>
       </c>
       <c r="C71" s="17"/>
       <c r="D71" s="17" t="s">
@@ -2990,9 +3044,9 @@
       </c>
       <c r="F71" s="17"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A72" s="54"/>
-      <c r="B72" s="54"/>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="46"/>
+      <c r="B72" s="46"/>
       <c r="C72" s="17"/>
       <c r="D72" s="17" t="s">
         <v>69</v>
@@ -3002,9 +3056,9 @@
       </c>
       <c r="F72" s="17"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A73" s="54"/>
-      <c r="B73" s="54"/>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="46"/>
+      <c r="B73" s="46"/>
       <c r="C73" s="17"/>
       <c r="D73" s="17" t="s">
         <v>56</v>
@@ -3014,12 +3068,12 @@
       </c>
       <c r="F73" s="17"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A74" s="53">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="45">
         <v>35</v>
       </c>
-      <c r="B74" s="53" t="s">
-        <v>124</v>
+      <c r="B74" s="45" t="s">
+        <v>123</v>
       </c>
       <c r="C74" s="17" t="s">
         <v>5</v>
@@ -3032,9 +3086,9 @@
       </c>
       <c r="F74" s="17"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A75" s="54"/>
-      <c r="B75" s="54"/>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="46"/>
+      <c r="B75" s="46"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17" t="s">
         <v>58</v>
@@ -3044,9 +3098,9 @@
       </c>
       <c r="F75" s="17"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A76" s="54"/>
-      <c r="B76" s="54"/>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="46"/>
+      <c r="B76" s="46"/>
       <c r="C76" s="17"/>
       <c r="D76" s="17" t="s">
         <v>16</v>
@@ -3056,12 +3110,12 @@
       </c>
       <c r="F76" s="17"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A77" s="56">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="55">
         <v>36</v>
       </c>
-      <c r="B77" s="56" t="s">
-        <v>125</v>
+      <c r="B77" s="55" t="s">
+        <v>124</v>
       </c>
       <c r="C77" s="39"/>
       <c r="D77" s="39" t="s">
@@ -3072,9 +3126,9 @@
       </c>
       <c r="F77" s="39"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A78" s="57"/>
-      <c r="B78" s="57"/>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="56"/>
+      <c r="B78" s="56"/>
       <c r="C78" s="39"/>
       <c r="D78" s="39" t="s">
         <v>53</v>
@@ -3084,9 +3138,9 @@
       </c>
       <c r="F78" s="39"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A79" s="57"/>
-      <c r="B79" s="57"/>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="56"/>
+      <c r="B79" s="56"/>
       <c r="C79" s="39"/>
       <c r="D79" s="39" t="s">
         <v>58</v>
@@ -3096,11 +3150,11 @@
       </c>
       <c r="F79" s="39"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A80" s="53">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="45">
         <v>37</v>
       </c>
-      <c r="B80" s="53" t="s">
+      <c r="B80" s="45" t="s">
         <v>64</v>
       </c>
       <c r="C80" s="17"/>
@@ -3112,9 +3166,9 @@
       </c>
       <c r="F80" s="17"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A81" s="54"/>
-      <c r="B81" s="54"/>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="46"/>
+      <c r="B81" s="46"/>
       <c r="C81" s="17"/>
       <c r="D81" s="17"/>
       <c r="E81" s="17" t="s">
@@ -3122,9 +3176,9 @@
       </c>
       <c r="F81" s="17"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A82" s="54"/>
-      <c r="B82" s="54"/>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="46"/>
+      <c r="B82" s="46"/>
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
       <c r="E82" s="17" t="s">
@@ -3132,9 +3186,9 @@
       </c>
       <c r="F82" s="17"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A83" s="54"/>
-      <c r="B83" s="54"/>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="46"/>
+      <c r="B83" s="46"/>
       <c r="C83" s="17"/>
       <c r="D83" s="17"/>
       <c r="E83" s="17" t="s">
@@ -3142,11 +3196,11 @@
       </c>
       <c r="F83" s="17"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A84" s="53">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="45">
         <v>38</v>
       </c>
-      <c r="B84" s="53" t="s">
+      <c r="B84" s="45" t="s">
         <v>66</v>
       </c>
       <c r="C84" s="17"/>
@@ -3158,9 +3212,9 @@
       </c>
       <c r="F84" s="17"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A85" s="54"/>
-      <c r="B85" s="54"/>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="46"/>
+      <c r="B85" s="46"/>
       <c r="C85" s="17"/>
       <c r="D85" s="17"/>
       <c r="E85" s="17" t="s">
@@ -3168,9 +3222,9 @@
       </c>
       <c r="F85" s="17"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A86" s="54"/>
-      <c r="B86" s="54"/>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="46"/>
+      <c r="B86" s="46"/>
       <c r="C86" s="17"/>
       <c r="D86" s="17"/>
       <c r="E86" s="17" t="s">
@@ -3178,9 +3232,9 @@
       </c>
       <c r="F86" s="17"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A87" s="54"/>
-      <c r="B87" s="54"/>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="46"/>
+      <c r="B87" s="46"/>
       <c r="C87" s="17"/>
       <c r="D87" s="17"/>
       <c r="E87" s="17" t="s">
@@ -3188,11 +3242,11 @@
       </c>
       <c r="F87" s="17"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A88" s="53">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="45">
         <v>39</v>
       </c>
-      <c r="B88" s="53" t="s">
+      <c r="B88" s="45" t="s">
         <v>68</v>
       </c>
       <c r="C88" s="17" t="s">
@@ -3206,9 +3260,9 @@
       </c>
       <c r="F88" s="17"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A89" s="54"/>
-      <c r="B89" s="54"/>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="46"/>
+      <c r="B89" s="46"/>
       <c r="C89" s="17"/>
       <c r="D89" s="17" t="s">
         <v>53</v>
@@ -3218,9 +3272,9 @@
       </c>
       <c r="F89" s="17"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A90" s="54"/>
-      <c r="B90" s="54"/>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="46"/>
+      <c r="B90" s="46"/>
       <c r="C90" s="17"/>
       <c r="D90" s="17" t="s">
         <v>60</v>
@@ -3230,9 +3284,9 @@
       </c>
       <c r="F90" s="17"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A91" s="54"/>
-      <c r="B91" s="54"/>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="46"/>
+      <c r="B91" s="46"/>
       <c r="C91" s="17"/>
       <c r="D91" s="17"/>
       <c r="E91" s="17" t="s">
@@ -3240,7 +3294,7 @@
       </c>
       <c r="F91" s="17"/>
     </row>
-    <row r="92" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="38">
         <v>40</v>
       </c>
@@ -3258,11 +3312,11 @@
       </c>
       <c r="F92" s="39"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A93" s="53">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="45">
         <v>41</v>
       </c>
-      <c r="B93" s="53" t="s">
+      <c r="B93" s="45" t="s">
         <v>72</v>
       </c>
       <c r="C93" s="17"/>
@@ -3274,9 +3328,9 @@
       </c>
       <c r="F93" s="17"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A94" s="54"/>
-      <c r="B94" s="54"/>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="46"/>
+      <c r="B94" s="46"/>
       <c r="C94" s="17"/>
       <c r="D94" s="17" t="s">
         <v>53</v>
@@ -3286,9 +3340,9 @@
       </c>
       <c r="F94" s="17"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A95" s="54"/>
-      <c r="B95" s="54"/>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="46"/>
+      <c r="B95" s="46"/>
       <c r="C95" s="17"/>
       <c r="D95" s="17"/>
       <c r="E95" s="17" t="s">
@@ -3296,9 +3350,9 @@
       </c>
       <c r="F95" s="17"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A96" s="54"/>
-      <c r="B96" s="54"/>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="46"/>
+      <c r="B96" s="46"/>
       <c r="C96" s="17"/>
       <c r="D96" s="17"/>
       <c r="E96" s="17" t="s">
@@ -3306,9 +3360,9 @@
       </c>
       <c r="F96" s="17"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A97" s="54"/>
-      <c r="B97" s="54"/>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="46"/>
+      <c r="B97" s="46"/>
       <c r="C97" s="17"/>
       <c r="D97" s="17"/>
       <c r="E97" s="17" t="s">
@@ -3316,11 +3370,11 @@
       </c>
       <c r="F97" s="17"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A98" s="53">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="45">
         <v>42</v>
       </c>
-      <c r="B98" s="53" t="s">
+      <c r="B98" s="45" t="s">
         <v>74</v>
       </c>
       <c r="C98" s="17"/>
@@ -3332,9 +3386,9 @@
       </c>
       <c r="F98" s="17"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A99" s="54"/>
-      <c r="B99" s="54"/>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="46"/>
+      <c r="B99" s="46"/>
       <c r="C99" s="17"/>
       <c r="D99" s="17" t="s">
         <v>53</v>
@@ -3344,9 +3398,9 @@
       </c>
       <c r="F99" s="17"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A100" s="54"/>
-      <c r="B100" s="54"/>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="46"/>
+      <c r="B100" s="46"/>
       <c r="C100" s="17"/>
       <c r="D100" s="17"/>
       <c r="E100" s="17" t="s">
@@ -3354,9 +3408,9 @@
       </c>
       <c r="F100" s="17"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A101" s="54"/>
-      <c r="B101" s="54"/>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="46"/>
+      <c r="B101" s="46"/>
       <c r="C101" s="17"/>
       <c r="D101" s="17"/>
       <c r="E101" s="17" t="s">
@@ -3364,9 +3418,9 @@
       </c>
       <c r="F101" s="17"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A102" s="54"/>
-      <c r="B102" s="54"/>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="46"/>
+      <c r="B102" s="46"/>
       <c r="C102" s="17"/>
       <c r="D102" s="17"/>
       <c r="E102" s="17" t="s">
@@ -3374,11 +3428,11 @@
       </c>
       <c r="F102" s="17"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A103" s="53">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="45">
         <v>43</v>
       </c>
-      <c r="B103" s="53" t="s">
+      <c r="B103" s="45" t="s">
         <v>75</v>
       </c>
       <c r="C103" s="17" t="s">
@@ -3392,9 +3446,9 @@
       </c>
       <c r="F103" s="17"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A104" s="54"/>
-      <c r="B104" s="54"/>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="46"/>
+      <c r="B104" s="46"/>
       <c r="C104" s="17"/>
       <c r="D104" s="17" t="s">
         <v>78</v>
@@ -3404,9 +3458,9 @@
       </c>
       <c r="F104" s="17"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A105" s="54"/>
-      <c r="B105" s="54"/>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="46"/>
+      <c r="B105" s="46"/>
       <c r="C105" s="17"/>
       <c r="D105" s="17"/>
       <c r="E105" s="17" t="s">
@@ -3414,9 +3468,9 @@
       </c>
       <c r="F105" s="17"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A106" s="54"/>
-      <c r="B106" s="54"/>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="46"/>
+      <c r="B106" s="46"/>
       <c r="C106" s="17"/>
       <c r="D106" s="17"/>
       <c r="E106" s="17" t="s">
@@ -3424,9 +3478,9 @@
       </c>
       <c r="F106" s="17"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A107" s="54"/>
-      <c r="B107" s="54"/>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="46"/>
+      <c r="B107" s="46"/>
       <c r="C107" s="17"/>
       <c r="D107" s="17"/>
       <c r="E107" s="17" t="s">
@@ -3434,11 +3488,11 @@
       </c>
       <c r="F107" s="17"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A108" s="53">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="45">
         <v>44</v>
       </c>
-      <c r="B108" s="59">
+      <c r="B108" s="53">
         <v>43474</v>
       </c>
       <c r="C108" s="17"/>
@@ -3450,9 +3504,9 @@
       </c>
       <c r="F108" s="17"/>
     </row>
-    <row r="109" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="54"/>
-      <c r="B109" s="60"/>
+    <row r="109" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="46"/>
+      <c r="B109" s="58"/>
       <c r="C109" s="17"/>
       <c r="D109" s="17" t="s">
         <v>80</v>
@@ -3462,9 +3516,9 @@
       </c>
       <c r="F109" s="17"/>
     </row>
-    <row r="110" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="54"/>
-      <c r="B110" s="60"/>
+    <row r="110" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="46"/>
+      <c r="B110" s="58"/>
       <c r="C110" s="17"/>
       <c r="D110" s="17"/>
       <c r="E110" s="17" t="s">
@@ -3472,9 +3526,9 @@
       </c>
       <c r="F110" s="17"/>
     </row>
-    <row r="111" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="54"/>
-      <c r="B111" s="60"/>
+    <row r="111" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="46"/>
+      <c r="B111" s="58"/>
       <c r="C111" s="17"/>
       <c r="D111" s="17"/>
       <c r="E111" s="17" t="s">
@@ -3482,9 +3536,9 @@
       </c>
       <c r="F111" s="17"/>
     </row>
-    <row r="112" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="54"/>
-      <c r="B112" s="61"/>
+    <row r="112" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="46"/>
+      <c r="B112" s="59"/>
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="17" t="s">
@@ -3492,11 +3546,11 @@
       </c>
       <c r="F112" s="17"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A113" s="53">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="45">
         <v>45</v>
       </c>
-      <c r="B113" s="53" t="s">
+      <c r="B113" s="45" t="s">
         <v>84</v>
       </c>
       <c r="C113" s="17" t="s">
@@ -3512,9 +3566,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A114" s="54"/>
-      <c r="B114" s="54"/>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="46"/>
+      <c r="B114" s="46"/>
       <c r="C114" s="17"/>
       <c r="D114" s="17" t="s">
         <v>58</v>
@@ -3524,9 +3578,9 @@
       </c>
       <c r="F114" s="17"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A115" s="54"/>
-      <c r="B115" s="54"/>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="46"/>
+      <c r="B115" s="46"/>
       <c r="C115" s="17"/>
       <c r="D115" s="17"/>
       <c r="E115" s="17" t="s">
@@ -3534,9 +3588,9 @@
       </c>
       <c r="F115" s="17"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A116" s="54"/>
-      <c r="B116" s="54"/>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="46"/>
+      <c r="B116" s="46"/>
       <c r="C116" s="17"/>
       <c r="D116" s="17"/>
       <c r="E116" s="17" t="s">
@@ -3544,9 +3598,9 @@
       </c>
       <c r="F116" s="17"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A117" s="54"/>
-      <c r="B117" s="54"/>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="46"/>
+      <c r="B117" s="46"/>
       <c r="C117" s="17"/>
       <c r="D117" s="17"/>
       <c r="E117" s="17" t="s">
@@ -3554,9 +3608,9 @@
       </c>
       <c r="F117" s="17"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A118" s="54"/>
-      <c r="B118" s="54"/>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="46"/>
+      <c r="B118" s="46"/>
       <c r="C118" s="17"/>
       <c r="D118" s="17"/>
       <c r="E118" s="17" t="s">
@@ -3564,9 +3618,9 @@
       </c>
       <c r="F118" s="17"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A119" s="55"/>
-      <c r="B119" s="55"/>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="54"/>
+      <c r="B119" s="54"/>
       <c r="C119" s="17"/>
       <c r="D119" s="17"/>
       <c r="E119" s="17" t="s">
@@ -3574,11 +3628,11 @@
       </c>
       <c r="F119" s="17"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A120" s="53">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="45">
         <v>46</v>
       </c>
-      <c r="B120" s="53" t="s">
+      <c r="B120" s="45" t="s">
         <v>100</v>
       </c>
       <c r="C120" s="17" t="s">
@@ -3592,9 +3646,9 @@
       </c>
       <c r="F120" s="17"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A121" s="54"/>
-      <c r="B121" s="54"/>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="46"/>
+      <c r="B121" s="46"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17" t="s">
         <v>58</v>
@@ -3604,9 +3658,9 @@
       </c>
       <c r="F121" s="17"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A122" s="54"/>
-      <c r="B122" s="54"/>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="46"/>
+      <c r="B122" s="46"/>
       <c r="C122" s="17"/>
       <c r="D122" s="17"/>
       <c r="E122" s="17" t="s">
@@ -3614,9 +3668,9 @@
       </c>
       <c r="F122" s="17"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A123" s="54"/>
-      <c r="B123" s="54"/>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="46"/>
+      <c r="B123" s="46"/>
       <c r="C123" s="17"/>
       <c r="D123" s="17"/>
       <c r="E123" s="17" t="s">
@@ -3624,9 +3678,9 @@
       </c>
       <c r="F123" s="17"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A124" s="54"/>
-      <c r="B124" s="54"/>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="46"/>
+      <c r="B124" s="46"/>
       <c r="C124" s="17"/>
       <c r="D124" s="17"/>
       <c r="E124" s="17" t="s">
@@ -3634,9 +3688,9 @@
       </c>
       <c r="F124" s="17"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A125" s="54"/>
-      <c r="B125" s="54"/>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="46"/>
+      <c r="B125" s="46"/>
       <c r="C125" s="17"/>
       <c r="D125" s="17"/>
       <c r="E125" s="17" t="s">
@@ -3644,9 +3698,9 @@
       </c>
       <c r="F125" s="17"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A126" s="55"/>
-      <c r="B126" s="55"/>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="54"/>
+      <c r="B126" s="54"/>
       <c r="C126" s="17"/>
       <c r="D126" s="17"/>
       <c r="E126" s="17" t="s">
@@ -3654,11 +3708,11 @@
       </c>
       <c r="F126" s="17"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A127" s="53">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="45">
         <v>47</v>
       </c>
-      <c r="B127" s="53" t="s">
+      <c r="B127" s="45" t="s">
         <v>99</v>
       </c>
       <c r="C127" s="17"/>
@@ -3670,9 +3724,9 @@
       </c>
       <c r="F127" s="17"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A128" s="54"/>
-      <c r="B128" s="54"/>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="46"/>
+      <c r="B128" s="46"/>
       <c r="C128" s="17"/>
       <c r="D128" s="17" t="s">
         <v>58</v>
@@ -3682,9 +3736,9 @@
       </c>
       <c r="F128" s="17"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A129" s="54"/>
-      <c r="B129" s="54"/>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="46"/>
+      <c r="B129" s="46"/>
       <c r="C129" s="17"/>
       <c r="D129" s="17"/>
       <c r="E129" s="17" t="s">
@@ -3692,9 +3746,9 @@
       </c>
       <c r="F129" s="17"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A130" s="54"/>
-      <c r="B130" s="54"/>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="46"/>
+      <c r="B130" s="46"/>
       <c r="C130" s="17"/>
       <c r="D130" s="17"/>
       <c r="E130" s="17" t="s">
@@ -3702,9 +3756,9 @@
       </c>
       <c r="F130" s="17"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A131" s="54"/>
-      <c r="B131" s="54"/>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="46"/>
+      <c r="B131" s="46"/>
       <c r="C131" s="17"/>
       <c r="D131" s="17"/>
       <c r="E131" s="17" t="s">
@@ -3712,9 +3766,9 @@
       </c>
       <c r="F131" s="17"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A132" s="55"/>
-      <c r="B132" s="55"/>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="54"/>
+      <c r="B132" s="54"/>
       <c r="C132" s="17"/>
       <c r="D132" s="17"/>
       <c r="E132" s="17" t="s">
@@ -3722,11 +3776,11 @@
       </c>
       <c r="F132" s="17"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A133" s="53">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="45">
         <v>48</v>
       </c>
-      <c r="B133" s="53" t="s">
+      <c r="B133" s="45" t="s">
         <v>98</v>
       </c>
       <c r="C133" s="17"/>
@@ -3740,9 +3794,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A134" s="54"/>
-      <c r="B134" s="54"/>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="46"/>
+      <c r="B134" s="46"/>
       <c r="C134" s="17"/>
       <c r="D134" s="17" t="s">
         <v>58</v>
@@ -3752,9 +3806,9 @@
       </c>
       <c r="F134" s="17"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A135" s="54"/>
-      <c r="B135" s="54"/>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="46"/>
+      <c r="B135" s="46"/>
       <c r="C135" s="17"/>
       <c r="D135" s="17" t="s">
         <v>93</v>
@@ -3764,9 +3818,9 @@
       </c>
       <c r="F135" s="17"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A136" s="54"/>
-      <c r="B136" s="54"/>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="46"/>
+      <c r="B136" s="46"/>
       <c r="C136" s="17"/>
       <c r="D136" s="17"/>
       <c r="E136" s="17" t="s">
@@ -3774,9 +3828,9 @@
       </c>
       <c r="F136" s="17"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A137" s="54"/>
-      <c r="B137" s="54"/>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="46"/>
+      <c r="B137" s="46"/>
       <c r="C137" s="17"/>
       <c r="D137" s="17"/>
       <c r="E137" s="17" t="s">
@@ -3784,9 +3838,9 @@
       </c>
       <c r="F137" s="17"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A138" s="55"/>
-      <c r="B138" s="55"/>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" s="54"/>
+      <c r="B138" s="54"/>
       <c r="C138" s="17"/>
       <c r="D138" s="17"/>
       <c r="E138" s="17" t="s">
@@ -3794,25 +3848,25 @@
       </c>
       <c r="F138" s="17"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="30">
         <v>49</v>
       </c>
       <c r="B139" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="C139" s="52" t="s">
+      <c r="C139" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="D139" s="52"/>
-      <c r="E139" s="52"/>
-      <c r="F139" s="52"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A140" s="53">
+      <c r="D139" s="60"/>
+      <c r="E139" s="60"/>
+      <c r="F139" s="60"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" s="45">
         <v>50</v>
       </c>
-      <c r="B140" s="53" t="s">
+      <c r="B140" s="45" t="s">
         <v>96</v>
       </c>
       <c r="C140" s="17" t="s">
@@ -3826,9 +3880,9 @@
       </c>
       <c r="F140" s="17"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A141" s="54"/>
-      <c r="B141" s="54"/>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" s="46"/>
+      <c r="B141" s="46"/>
       <c r="C141" s="17"/>
       <c r="D141" s="17" t="s">
         <v>58</v>
@@ -3838,9 +3892,9 @@
       </c>
       <c r="F141" s="17"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A142" s="54"/>
-      <c r="B142" s="54"/>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" s="46"/>
+      <c r="B142" s="46"/>
       <c r="C142" s="17"/>
       <c r="D142" s="17" t="s">
         <v>93</v>
@@ -3850,9 +3904,9 @@
       </c>
       <c r="F142" s="17"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A143" s="54"/>
-      <c r="B143" s="54"/>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" s="46"/>
+      <c r="B143" s="46"/>
       <c r="C143" s="17"/>
       <c r="D143" s="17"/>
       <c r="E143" s="17" t="s">
@@ -3860,9 +3914,9 @@
       </c>
       <c r="F143" s="17"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A144" s="54"/>
-      <c r="B144" s="54"/>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" s="46"/>
+      <c r="B144" s="46"/>
       <c r="C144" s="17"/>
       <c r="D144" s="17"/>
       <c r="E144" s="17" t="s">
@@ -3870,9 +3924,9 @@
       </c>
       <c r="F144" s="17"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A145" s="55"/>
-      <c r="B145" s="55"/>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="54"/>
+      <c r="B145" s="54"/>
       <c r="C145" s="17"/>
       <c r="D145" s="17"/>
       <c r="E145" s="17" t="s">
@@ -3880,12 +3934,12 @@
       </c>
       <c r="F145" s="17"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A146" s="53">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="45">
         <v>51</v>
       </c>
-      <c r="B146" s="53" t="s">
-        <v>108</v>
+      <c r="B146" s="45" t="s">
+        <v>107</v>
       </c>
       <c r="C146" s="17"/>
       <c r="D146" s="17" t="s">
@@ -3896,21 +3950,21 @@
       </c>
       <c r="F146" s="17"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A147" s="54"/>
-      <c r="B147" s="54"/>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="46"/>
+      <c r="B147" s="46"/>
       <c r="C147" s="17"/>
       <c r="D147" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E147" s="17" t="s">
         <v>79</v>
       </c>
       <c r="F147" s="17"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A148" s="54"/>
-      <c r="B148" s="54"/>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" s="46"/>
+      <c r="B148" s="46"/>
       <c r="C148" s="17"/>
       <c r="D148" s="17" t="s">
         <v>93</v>
@@ -3920,9 +3974,9 @@
       </c>
       <c r="F148" s="17"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A149" s="54"/>
-      <c r="B149" s="54"/>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" s="46"/>
+      <c r="B149" s="46"/>
       <c r="C149" s="17"/>
       <c r="D149" s="17"/>
       <c r="E149" s="17" t="s">
@@ -3930,9 +3984,9 @@
       </c>
       <c r="F149" s="17"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A150" s="54"/>
-      <c r="B150" s="54"/>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" s="46"/>
+      <c r="B150" s="46"/>
       <c r="C150" s="17"/>
       <c r="D150" s="17"/>
       <c r="E150" s="17" t="s">
@@ -3940,9 +3994,9 @@
       </c>
       <c r="F150" s="17"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A151" s="55"/>
-      <c r="B151" s="55"/>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" s="54"/>
+      <c r="B151" s="54"/>
       <c r="C151" s="17"/>
       <c r="D151" s="17"/>
       <c r="E151" s="17" t="s">
@@ -3950,12 +4004,12 @@
       </c>
       <c r="F151" s="17"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A152" s="53">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" s="45">
         <v>52</v>
       </c>
-      <c r="B152" s="58" t="s">
-        <v>110</v>
+      <c r="B152" s="57" t="s">
+        <v>109</v>
       </c>
       <c r="C152" s="17"/>
       <c r="D152" s="17" t="s">
@@ -3965,61 +4019,61 @@
         <v>55</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A153" s="54"/>
-      <c r="B153" s="58"/>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" s="46"/>
+      <c r="B153" s="57"/>
       <c r="C153" s="17"/>
       <c r="D153" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E153" s="17" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A154" s="54"/>
-      <c r="B154" s="58"/>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" s="46"/>
+      <c r="B154" s="57"/>
       <c r="C154" s="17"/>
       <c r="D154" s="17"/>
       <c r="E154" s="17" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A155" s="54"/>
-      <c r="B155" s="58"/>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" s="46"/>
+      <c r="B155" s="57"/>
       <c r="C155" s="17"/>
       <c r="D155" s="17"/>
       <c r="E155" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A156" s="54"/>
-      <c r="B156" s="58"/>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" s="46"/>
+      <c r="B156" s="57"/>
       <c r="C156" s="17"/>
       <c r="D156" s="17"/>
       <c r="E156" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A157" s="55"/>
-      <c r="B157" s="58"/>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" s="54"/>
+      <c r="B157" s="57"/>
       <c r="C157" s="17"/>
       <c r="D157" s="17"/>
       <c r="E157" s="17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A158" s="50">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" s="57">
         <v>53</v>
       </c>
-      <c r="B158" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C158" s="1" t="s">
+      <c r="B158" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="C158" s="17" t="s">
         <v>65</v>
       </c>
       <c r="D158" s="17" t="s">
@@ -4029,47 +4083,61 @@
         <v>55</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A159" s="51"/>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" s="57"/>
+      <c r="B159" s="57"/>
+      <c r="C159" s="17"/>
       <c r="D159" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E159" s="17" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A160" s="51"/>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" s="57"/>
+      <c r="B160" s="57"/>
+      <c r="C160" s="17"/>
+      <c r="D160" s="17"/>
       <c r="E160" s="17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A161" s="51"/>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="57"/>
+      <c r="B161" s="57"/>
+      <c r="C161" s="17"/>
+      <c r="D161" s="17"/>
       <c r="E161" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A162" s="51"/>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="57"/>
+      <c r="B162" s="57"/>
+      <c r="C162" s="17"/>
+      <c r="D162" s="17"/>
       <c r="E162" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A163" s="51"/>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="57"/>
+      <c r="B163" s="57"/>
+      <c r="C163" s="17"/>
+      <c r="D163" s="17"/>
       <c r="E163" s="17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A164" s="51">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="57">
         <v>54</v>
       </c>
-      <c r="B164" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C164" s="1" t="s">
+      <c r="B164" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="C164" s="17" t="s">
         <v>65</v>
       </c>
       <c r="D164" s="17" t="s">
@@ -4079,8 +4147,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A165" s="51"/>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="57"/>
+      <c r="B165" s="57"/>
+      <c r="C165" s="17"/>
       <c r="D165" s="17" t="s">
         <v>93</v>
       </c>
@@ -4088,34 +4158,50 @@
         <v>79</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A166" s="51"/>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="57"/>
+      <c r="B166" s="57"/>
+      <c r="C166" s="17"/>
+      <c r="D166" s="17"/>
       <c r="E166" s="17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A167" s="51"/>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="57"/>
+      <c r="B167" s="57"/>
+      <c r="C167" s="17"/>
+      <c r="D167" s="17"/>
       <c r="E167" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A168" s="51"/>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="57"/>
+      <c r="B168" s="57"/>
+      <c r="C168" s="17"/>
+      <c r="D168" s="17"/>
       <c r="E168" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A169" s="51"/>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="57"/>
+      <c r="B169" s="57"/>
+      <c r="C169" s="17"/>
+      <c r="D169" s="17"/>
       <c r="E169" s="17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B170" s="45">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="45">
+        <v>55</v>
+      </c>
+      <c r="B170" s="62">
         <v>43475</v>
       </c>
+      <c r="C170" s="17"/>
       <c r="D170" s="17" t="s">
         <v>93</v>
       </c>
@@ -4123,421 +4209,833 @@
         <v>55</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B171" s="42"/>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" s="46"/>
+      <c r="B171" s="62"/>
+      <c r="C171" s="17"/>
+      <c r="D171" s="17"/>
       <c r="E171" s="17"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B172" s="42"/>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="46"/>
+      <c r="B172" s="62"/>
+      <c r="C172" s="17"/>
+      <c r="D172" s="17"/>
       <c r="E172" s="17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B173" s="42"/>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="54"/>
+      <c r="B173" s="62"/>
+      <c r="C173" s="17"/>
+      <c r="D173" s="17"/>
       <c r="E173" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B174" s="45">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="45">
+        <v>56</v>
+      </c>
+      <c r="B174" s="62">
         <v>43534</v>
       </c>
-      <c r="D174" s="1" t="s">
-        <v>127</v>
+      <c r="C174" s="17"/>
+      <c r="D174" s="17" t="s">
+        <v>126</v>
       </c>
       <c r="E174" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D175" s="1" t="s">
-        <v>128</v>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="46"/>
+      <c r="B175" s="62"/>
+      <c r="C175" s="17"/>
+      <c r="D175" s="17" t="s">
+        <v>127</v>
       </c>
       <c r="E175" s="17" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D176" s="1" t="s">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="46"/>
+      <c r="B176" s="62"/>
+      <c r="C176" s="17"/>
+      <c r="D176" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E176" s="17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" s="46"/>
+      <c r="B177" s="62"/>
+      <c r="C177" s="17"/>
+      <c r="D177" s="17"/>
       <c r="E177" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="46"/>
+      <c r="B178" s="62"/>
+      <c r="C178" s="17"/>
+      <c r="D178" s="17"/>
       <c r="E178" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="54"/>
+      <c r="B179" s="62"/>
+      <c r="C179" s="17"/>
+      <c r="D179" s="17"/>
       <c r="E179" s="17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B180" s="45">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" s="45">
+        <v>57</v>
+      </c>
+      <c r="B180" s="62">
         <v>43595</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="C180" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="D180" s="17" t="s">
         <v>93</v>
       </c>
       <c r="E180" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D181" s="1" t="s">
-        <v>128</v>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="46"/>
+      <c r="B181" s="62"/>
+      <c r="C181" s="17"/>
+      <c r="D181" s="17" t="s">
+        <v>127</v>
       </c>
       <c r="E181" s="17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D182" s="1" t="s">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" s="54"/>
+      <c r="B182" s="62"/>
+      <c r="C182" s="17"/>
+      <c r="D182" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E182" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A183" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="B183" s="49"/>
-      <c r="C183" s="49"/>
-      <c r="D183" s="49"/>
-      <c r="E183" s="49"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B184" s="46">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" s="67">
+        <v>58</v>
+      </c>
+      <c r="B183" s="43">
+        <v>43626</v>
+      </c>
+      <c r="C183" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="D183" s="69"/>
+      <c r="E183" s="70"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" s="45">
+        <v>59</v>
+      </c>
+      <c r="B184" s="63">
         <v>43746</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="C184" s="17"/>
+      <c r="D184" s="17" t="s">
         <v>93</v>
       </c>
       <c r="E184" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D185" s="1" t="s">
-        <v>128</v>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" s="46"/>
+      <c r="B185" s="63"/>
+      <c r="C185" s="17"/>
+      <c r="D185" s="17" t="s">
+        <v>127</v>
       </c>
       <c r="E185" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D186" s="1" t="s">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" s="54"/>
+      <c r="B186" s="63"/>
+      <c r="C186" s="17"/>
+      <c r="D186" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E186" s="17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B187" s="47">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" s="45">
+        <v>60</v>
+      </c>
+      <c r="B187" s="64">
         <v>43748</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="C187" s="17"/>
+      <c r="D187" s="17" t="s">
         <v>93</v>
       </c>
       <c r="E187" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D188" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E188" s="1" t="s">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" s="46"/>
+      <c r="B188" s="64"/>
+      <c r="C188" s="17"/>
+      <c r="D188" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E188" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D189" s="1" t="s">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" s="54"/>
+      <c r="B189" s="64"/>
+      <c r="C189" s="17"/>
+      <c r="D189" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E189" s="1" t="s">
+      <c r="E189" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B190" s="47">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" s="45">
+        <v>61</v>
+      </c>
+      <c r="B190" s="64">
         <v>43750</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="C190" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D190" s="1" t="s">
+      <c r="D190" s="17" t="s">
         <v>93</v>
       </c>
       <c r="E190" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D191" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E191" s="1" t="s">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" s="46"/>
+      <c r="B191" s="64"/>
+      <c r="C191" s="17"/>
+      <c r="D191" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E191" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D192" s="1" t="s">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" s="54"/>
+      <c r="B192" s="64"/>
+      <c r="C192" s="17"/>
+      <c r="D192" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E192" s="1" t="s">
+      <c r="E192" s="17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B193" s="47">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" s="45">
+        <v>62</v>
+      </c>
+      <c r="B193" s="64">
         <v>43751</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="C193" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="D193" s="17" t="s">
         <v>93</v>
       </c>
       <c r="E193" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D194" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E194" s="1" t="s">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" s="46"/>
+      <c r="B194" s="64"/>
+      <c r="C194" s="17"/>
+      <c r="D194" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E194" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D195" s="1" t="s">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="54"/>
+      <c r="B195" s="64"/>
+      <c r="C195" s="17"/>
+      <c r="D195" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E195" s="1" t="s">
+      <c r="E195" s="17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B196" s="47">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="45">
+        <v>63</v>
+      </c>
+      <c r="B196" s="64">
         <v>43753</v>
       </c>
-      <c r="D196" s="1" t="s">
-        <v>111</v>
+      <c r="C196" s="17"/>
+      <c r="D196" s="17" t="s">
+        <v>110</v>
       </c>
       <c r="E196" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D197" s="1" t="s">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="46"/>
+      <c r="B197" s="64"/>
+      <c r="C197" s="17"/>
+      <c r="D197" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E197" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" s="54"/>
+      <c r="B198" s="64"/>
+      <c r="C198" s="17"/>
+      <c r="D198" s="17"/>
+      <c r="E198" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" s="45">
+        <v>64</v>
+      </c>
+      <c r="B199" s="64">
+        <v>43755</v>
+      </c>
+      <c r="C199" s="17"/>
+      <c r="D199" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E199" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" s="54"/>
+      <c r="B200" s="64"/>
+      <c r="C200" s="17"/>
+      <c r="D200" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E200" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" s="45">
+        <v>65</v>
+      </c>
+      <c r="B201" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="E197" s="1" t="s">
+      <c r="C201" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D201" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E201" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" s="46"/>
+      <c r="B202" s="57"/>
+      <c r="C202" s="17"/>
+      <c r="D202" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E202" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" s="46"/>
+      <c r="B203" s="57"/>
+      <c r="C203" s="17"/>
+      <c r="D203" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E203" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" s="46"/>
+      <c r="B204" s="57"/>
+      <c r="C204" s="17"/>
+      <c r="D204" s="17"/>
+      <c r="E204" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" s="54"/>
+      <c r="B205" s="57"/>
+      <c r="C205" s="17"/>
+      <c r="D205" s="17"/>
+      <c r="E205" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" s="45">
+        <v>66</v>
+      </c>
+      <c r="B206" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="C206" s="17"/>
+      <c r="D206" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E206" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" s="46"/>
+      <c r="B207" s="57"/>
+      <c r="C207" s="17"/>
+      <c r="D207" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E207" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" s="46"/>
+      <c r="B208" s="57"/>
+      <c r="C208" s="17"/>
+      <c r="D208" s="17"/>
+      <c r="E208" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" s="46"/>
+      <c r="B209" s="57"/>
+      <c r="C209" s="17"/>
+      <c r="D209" s="17"/>
+      <c r="E209" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" s="54"/>
+      <c r="B210" s="57"/>
+      <c r="C210" s="17"/>
+      <c r="D210" s="17"/>
+      <c r="E210" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" s="45">
+        <v>67</v>
+      </c>
+      <c r="B211" s="64">
+        <v>43760</v>
+      </c>
+      <c r="C211" s="17"/>
+      <c r="D211" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E211" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" s="54"/>
+      <c r="B212" s="64"/>
+      <c r="C212" s="17"/>
+      <c r="D212" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E212" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="45">
+        <v>68</v>
+      </c>
+      <c r="B213" s="64">
+        <v>43762</v>
+      </c>
+      <c r="C213" s="17"/>
+      <c r="D213" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E213" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="54"/>
+      <c r="B214" s="64"/>
+      <c r="C214" s="17"/>
+      <c r="D214" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E214" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="45">
+        <v>69</v>
+      </c>
+      <c r="B215" s="64">
+        <v>43764</v>
+      </c>
+      <c r="C215" s="17"/>
+      <c r="D215" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E215" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="46"/>
+      <c r="B216" s="64"/>
+      <c r="C216" s="17"/>
+      <c r="D216" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E216" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" s="46"/>
+      <c r="B217" s="64"/>
+      <c r="C217" s="17"/>
+      <c r="D217" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E217" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="46"/>
+      <c r="B218" s="64"/>
+      <c r="C218" s="17"/>
+      <c r="D218" s="17"/>
+      <c r="E218" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" s="54"/>
+      <c r="B219" s="64"/>
+      <c r="C219" s="17"/>
+      <c r="D219" s="17"/>
+      <c r="E219" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E198" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B199" s="47">
-        <v>43755</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D200" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B201" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C201" s="1" t="s">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" s="44">
+        <v>70</v>
+      </c>
+      <c r="B220" s="65">
+        <v>43765</v>
+      </c>
+      <c r="C220" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="D220" s="66"/>
+      <c r="E220" s="66"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" s="45">
+        <v>71</v>
+      </c>
+      <c r="B221" s="64">
+        <v>43767</v>
+      </c>
+      <c r="C221" s="17"/>
+      <c r="D221" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E221" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" s="54"/>
+      <c r="B222" s="64"/>
+      <c r="C222" s="17"/>
+      <c r="D222" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E222" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" s="44">
+        <v>72</v>
+      </c>
+      <c r="B223" s="65">
+        <v>43769</v>
+      </c>
+      <c r="C223" s="65"/>
+      <c r="D223" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="E223" s="65"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" s="45">
+        <v>73</v>
+      </c>
+      <c r="B224" s="64">
+        <v>43771</v>
+      </c>
+      <c r="C224" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D224" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E224" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" s="46"/>
+      <c r="B225" s="64"/>
+      <c r="C225" s="17"/>
+      <c r="D225" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E225" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D201" s="1" t="s">
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" s="46"/>
+      <c r="B226" s="64"/>
+      <c r="C226" s="17"/>
+      <c r="D226" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E226" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" s="46"/>
+      <c r="B227" s="64"/>
+      <c r="C227" s="17"/>
+      <c r="D227" s="17"/>
+      <c r="E227" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" s="46"/>
+      <c r="B228" s="64"/>
+      <c r="C228" s="17"/>
+      <c r="D228" s="17"/>
+      <c r="E228" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" s="54"/>
+      <c r="B229" s="64"/>
+      <c r="C229" s="17"/>
+      <c r="D229" s="17"/>
+      <c r="E229" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" s="45">
+        <v>74</v>
+      </c>
+      <c r="B230" s="64">
+        <v>43772</v>
+      </c>
+      <c r="C230" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D230" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E230" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" s="46"/>
+      <c r="B231" s="64"/>
+      <c r="C231" s="17"/>
+      <c r="D231" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="E201" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D202" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D203" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E204" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E205" s="1" t="s">
+      <c r="E231" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" s="46"/>
+      <c r="B232" s="64"/>
+      <c r="C232" s="17"/>
+      <c r="D232" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E232" s="17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B206" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D207" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E208" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E209" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E210" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B211" s="47">
-        <v>43760</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D212" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B213" s="47">
-        <v>43762</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D214" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B215" s="47">
-        <v>43764</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D216" s="1" t="s">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" s="46"/>
+      <c r="B233" s="64"/>
+      <c r="C233" s="17"/>
+      <c r="D233" s="17"/>
+      <c r="E233" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="E216" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D217" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E218" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E219" s="1" t="s">
-        <v>55</v>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" s="46"/>
+      <c r="B234" s="64"/>
+      <c r="C234" s="17"/>
+      <c r="D234" s="17"/>
+      <c r="E234" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" s="54"/>
+      <c r="B235" s="64"/>
+      <c r="C235" s="17"/>
+      <c r="D235" s="17"/>
+      <c r="E235" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" s="13">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" s="13">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C48:F169" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <mergeCells count="54">
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
+  <autoFilter ref="C48:F169"/>
+  <mergeCells count="91">
+    <mergeCell ref="A230:A235"/>
+    <mergeCell ref="C183:E183"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="A215:A219"/>
+    <mergeCell ref="A221:A222"/>
+    <mergeCell ref="A224:A229"/>
+    <mergeCell ref="B215:B219"/>
+    <mergeCell ref="B221:B222"/>
+    <mergeCell ref="B224:B229"/>
+    <mergeCell ref="B230:B235"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="A174:A179"/>
+    <mergeCell ref="A180:A182"/>
+    <mergeCell ref="A184:A186"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="A190:A192"/>
+    <mergeCell ref="A193:A195"/>
+    <mergeCell ref="A196:A198"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="A201:A205"/>
+    <mergeCell ref="A206:A210"/>
+    <mergeCell ref="C220:E220"/>
+    <mergeCell ref="B158:B163"/>
+    <mergeCell ref="B164:B169"/>
+    <mergeCell ref="B170:B173"/>
+    <mergeCell ref="B174:B179"/>
+    <mergeCell ref="B180:B182"/>
+    <mergeCell ref="B184:B186"/>
+    <mergeCell ref="B187:B189"/>
+    <mergeCell ref="B190:B192"/>
+    <mergeCell ref="B193:B195"/>
+    <mergeCell ref="B196:B198"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="B201:B205"/>
+    <mergeCell ref="B206:B210"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="A158:A163"/>
+    <mergeCell ref="A164:A169"/>
+    <mergeCell ref="C139:F139"/>
+    <mergeCell ref="B140:B145"/>
+    <mergeCell ref="A140:A145"/>
+    <mergeCell ref="A146:A151"/>
+    <mergeCell ref="B146:B151"/>
+    <mergeCell ref="B152:B157"/>
+    <mergeCell ref="A152:A157"/>
+    <mergeCell ref="B113:B119"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="A98:A102"/>
+    <mergeCell ref="B108:B112"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="B98:B102"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="B133:B138"/>
+    <mergeCell ref="B127:B132"/>
+    <mergeCell ref="A127:A132"/>
     <mergeCell ref="A133:A138"/>
     <mergeCell ref="A71:A73"/>
     <mergeCell ref="B71:B73"/>
@@ -4554,29 +5052,22 @@
     <mergeCell ref="A74:A76"/>
     <mergeCell ref="B74:B76"/>
     <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
     <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B152:B157"/>
-    <mergeCell ref="A152:A157"/>
-    <mergeCell ref="B113:B119"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="A98:A102"/>
-    <mergeCell ref="B108:B112"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="B98:B102"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="B133:B138"/>
-    <mergeCell ref="B127:B132"/>
-    <mergeCell ref="A127:A132"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="A158:A163"/>
-    <mergeCell ref="A164:A169"/>
-    <mergeCell ref="C139:F139"/>
-    <mergeCell ref="B140:B145"/>
-    <mergeCell ref="A140:A145"/>
-    <mergeCell ref="A146:A151"/>
-    <mergeCell ref="B146:B151"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4588,19 +5079,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G24"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.59375" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="11.59375" style="1"/>
+    <col min="1" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
@@ -4610,7 +5101,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
@@ -4630,7 +5121,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="5">
         <v>1</v>
       </c>
@@ -4650,7 +5141,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -4670,7 +5161,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -4690,7 +5181,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -4710,7 +5201,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="5">
         <v>5</v>
       </c>
@@ -4722,7 +5213,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="5">
         <v>6</v>
       </c>
@@ -4734,7 +5225,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="5">
         <v>7</v>
       </c>
@@ -4746,7 +5237,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="5">
         <v>8</v>
       </c>
@@ -4758,7 +5249,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="5">
         <v>9</v>
       </c>
@@ -4770,7 +5261,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="5">
         <v>10</v>
       </c>
@@ -4782,7 +5273,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="5">
         <v>11</v>
       </c>
@@ -4794,7 +5285,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="5">
         <v>12</v>
       </c>
@@ -4808,7 +5299,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="5">
         <v>13</v>
       </c>
@@ -4822,7 +5313,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="5">
         <v>14</v>
       </c>
@@ -4834,7 +5325,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="5">
         <v>15</v>
       </c>
@@ -4846,7 +5337,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="5">
         <v>16</v>
       </c>
@@ -4856,7 +5347,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="5">
         <v>17</v>
       </c>
@@ -4866,7 +5357,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="5">
         <v>18</v>
       </c>
@@ -4876,7 +5367,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="5">
         <v>19</v>
       </c>
@@ -4886,7 +5377,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="5">
         <v>20</v>
       </c>
@@ -4896,7 +5387,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="5">
         <v>21</v>
       </c>
@@ -4917,21 +5408,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="A1:D11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.23828125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -4939,29 +5431,29 @@
         <v>105</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="G1" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="21">
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="22">
         <v>9</v>
       </c>
       <c r="D2" s="22">
-        <f>C2*50</f>
+        <f t="shared" ref="D2:D9" si="0">C2*50</f>
         <v>450</v>
       </c>
       <c r="G2" s="14" t="s">
@@ -4974,18 +5466,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="21">
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" s="22">
         <v>13</v>
       </c>
       <c r="D3" s="22">
-        <f>C3*50</f>
+        <f t="shared" si="0"/>
         <v>650</v>
       </c>
       <c r="G3" s="14" t="s">
@@ -4998,18 +5490,18 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="21">
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" s="22">
         <v>16</v>
       </c>
       <c r="D4" s="22">
-        <f>C4*50</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G4" s="14" t="s">
@@ -5022,82 +5514,82 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" s="22">
         <v>22</v>
       </c>
       <c r="D5" s="22">
-        <f>C5*50</f>
+        <f t="shared" si="0"/>
         <v>1100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="22">
         <v>9</v>
       </c>
       <c r="D6" s="22">
-        <f>C6*50</f>
+        <f t="shared" si="0"/>
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="22">
         <v>25</v>
       </c>
       <c r="D7" s="22">
-        <f>C7*50</f>
+        <f t="shared" si="0"/>
         <v>1250</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C8" s="22">
         <v>6</v>
       </c>
       <c r="D8" s="22">
-        <f>C8*50</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C9" s="22">
         <v>8</v>
       </c>
       <c r="D9" s="22">
-        <f>C9*50</f>
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -5107,43 +5599,143 @@
       </c>
       <c r="E10" s="15"/>
     </row>
-    <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
       <c r="E12" s="15"/>
     </row>
-    <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="72">
+        <v>1</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="22">
+        <v>750</v>
+      </c>
+      <c r="D13" s="22"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="72">
+        <v>2</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="22">
+        <v>750</v>
+      </c>
+      <c r="D14" s="22"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="43">
+    <row r="15" spans="1:9" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="72">
+        <v>3</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="22">
+        <v>300</v>
+      </c>
+      <c r="D15" s="73"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="72">
+        <v>4</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="22">
+        <v>150</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="72">
+        <v>5</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="22">
+        <v>150</v>
+      </c>
+      <c r="D17" s="22"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="72">
         <v>6</v>
       </c>
-      <c r="B15" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="44">
-        <v>19</v>
-      </c>
-      <c r="D15" s="44">
-        <f>C15*50</f>
-        <v>950</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E16" s="15"/>
+      <c r="B18" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="22">
+        <v>750</v>
+      </c>
+      <c r="D18" s="22"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="72">
+        <v>7</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="22">
+        <v>750</v>
+      </c>
+      <c r="D19" s="22"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="72">
+        <v>8</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="22">
+        <v>400</v>
+      </c>
+      <c r="D20" s="22"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="72">
+        <v>9</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="22">
+        <v>400</v>
+      </c>
+      <c r="D21" s="22"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <f>C21+C20+C19+C18+C17+C16+C15+C14+C13</f>
+        <v>4400</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -5151,7 +5743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5161,12 +5753,12 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.59375" defaultRowHeight="27.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.59375" style="10"/>
-    <col min="2" max="2" width="45.578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.3203125" style="12" customWidth="1"/>
-    <col min="4" max="16384" width="11.59375" style="12"/>
+    <col min="1" max="1" width="11.5703125" style="10"/>
+    <col min="2" max="2" width="45.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.28515625" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="11.5703125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.4">
@@ -5180,7 +5772,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="32">
         <v>1</v>
       </c>
@@ -5189,7 +5781,7 @@
       </c>
       <c r="C2" s="34"/>
     </row>
-    <row r="3" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="32">
         <v>2</v>
       </c>
@@ -5198,7 +5790,7 @@
       </c>
       <c r="C3" s="34"/>
     </row>
-    <row r="4" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="32">
         <v>3</v>
       </c>
@@ -5207,7 +5799,7 @@
       </c>
       <c r="C4" s="34"/>
     </row>
-    <row r="5" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="32">
         <v>4</v>
       </c>
@@ -5216,7 +5808,7 @@
       </c>
       <c r="C5" s="34"/>
     </row>
-    <row r="6" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="32">
         <v>5</v>
       </c>
@@ -5225,7 +5817,7 @@
       </c>
       <c r="C6" s="34"/>
     </row>
-    <row r="7" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="32">
         <v>6</v>
       </c>
@@ -5234,7 +5826,7 @@
       </c>
       <c r="C7" s="34"/>
     </row>
-    <row r="8" spans="1:3" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="96.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="32">
         <v>7</v>
       </c>
@@ -5243,7 +5835,7 @@
       </c>
       <c r="C8" s="34"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="32">
         <v>8</v>
       </c>
@@ -5252,7 +5844,7 @@
       </c>
       <c r="C9" s="34"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="32">
         <v>9</v>
       </c>

--- a/Crew_infinty_details.xlsx
+++ b/Crew_infinty_details.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vetriselvan.kuppan\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B2A06BD-ECE0-884B-B117-6D68B2AC8689}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="539" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="539" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="session details" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'session details'!$C$48:$F$169</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="150">
   <si>
     <t>SI No.</t>
   </si>
@@ -485,7 +486,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
@@ -1083,7 +1084,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
@@ -1183,10 +1184,65 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="17" fillId="18" borderId="13" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="13" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="18" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="17" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="19" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="17" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="13" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="17" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="13" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="15" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="16" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="14" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="15" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1207,67 +1263,15 @@
     <xf numFmtId="0" fontId="17" fillId="17" borderId="13" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="14" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="15" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="15" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="16" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="13" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="17" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="17" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="17" fillId="18" borderId="13" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="13" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="13" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="18" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="17" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="19" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="15" fontId="17" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1297,7 +1301,7 @@
     <cellStyle name="Bad" xfId="25" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="26" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="27" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Excel Built-in Normal" xfId="42"/>
+    <cellStyle name="Excel Built-in Normal" xfId="42" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="Explanatory Text" xfId="28" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="29" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="30" builtinId="16" customBuiltin="1"/>
@@ -1691,34 +1695,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q237"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q238"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" zoomScale="90" workbookViewId="0">
-      <selection activeCell="A238" sqref="A238"/>
+    <sheetView tabSelected="1" topLeftCell="A221" zoomScale="90" workbookViewId="0">
+      <selection activeCell="E237" sqref="E237"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.59375" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="11.5703125" style="13"/>
-    <col min="3" max="4" width="11.5703125" style="1"/>
-    <col min="5" max="5" width="17.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="1"/>
-    <col min="7" max="7" width="21" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.5703125" style="1"/>
+    <col min="1" max="2" width="11.59375" style="13"/>
+    <col min="3" max="4" width="11.59375" style="1"/>
+    <col min="5" max="5" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.59375" style="1"/>
+    <col min="7" max="7" width="21.03515625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.59375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.15">
+      <c r="A1" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49"/>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="68"/>
+    </row>
+    <row r="2" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
@@ -1738,7 +1742,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -1752,7 +1756,7 @@
       <c r="E3" s="18"/>
       <c r="F3" s="17"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -1760,7 +1764,7 @@
       <c r="E4" s="18"/>
       <c r="F4" s="17"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="18">
         <v>2</v>
       </c>
@@ -1778,7 +1782,7 @@
       </c>
       <c r="F5" s="17"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="18"/>
@@ -1789,7 +1793,7 @@
       <c r="F6" s="17"/>
       <c r="I6"/>
     </row>
-    <row r="7" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="18">
         <v>3</v>
       </c>
@@ -1808,7 +1812,7 @@
       <c r="F7" s="17"/>
       <c r="I7"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="18"/>
       <c r="B8" s="20"/>
       <c r="C8" s="16"/>
@@ -1827,7 +1831,7 @@
       <c r="P8"/>
       <c r="Q8"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="16">
         <v>4</v>
       </c>
@@ -1852,7 +1856,7 @@
       <c r="P9"/>
       <c r="Q9"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="18">
         <v>5</v>
       </c>
@@ -1877,7 +1881,7 @@
       <c r="P10"/>
       <c r="Q10"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="18"/>
       <c r="B11" s="19"/>
       <c r="C11" s="18"/>
@@ -1897,7 +1901,7 @@
       <c r="P11"/>
       <c r="Q11"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="18">
         <v>6</v>
       </c>
@@ -1923,7 +1927,7 @@
       <c r="P12"/>
       <c r="Q12"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="18"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -1943,7 +1947,7 @@
       <c r="P13"/>
       <c r="Q13"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="18"/>
       <c r="B14" s="19"/>
       <c r="C14" s="21"/>
@@ -1962,7 +1966,7 @@
       <c r="P14"/>
       <c r="Q14"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="18">
         <v>7</v>
       </c>
@@ -1985,7 +1989,7 @@
       <c r="P15"/>
       <c r="Q15"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="18"/>
       <c r="B16" s="25"/>
       <c r="C16" s="21"/>
@@ -2004,7 +2008,7 @@
       <c r="P16"/>
       <c r="Q16"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="18"/>
       <c r="B17" s="25"/>
       <c r="C17" s="21"/>
@@ -2023,7 +2027,7 @@
       <c r="P17"/>
       <c r="Q17"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="18"/>
       <c r="B18" s="25"/>
       <c r="C18" s="21"/>
@@ -2042,7 +2046,7 @@
       <c r="P18"/>
       <c r="Q18"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="18">
         <v>8</v>
       </c>
@@ -2064,7 +2068,7 @@
       <c r="P19"/>
       <c r="Q19"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="18"/>
       <c r="B20" s="25"/>
       <c r="C20" s="21"/>
@@ -2082,7 +2086,7 @@
       <c r="P20"/>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="18"/>
       <c r="B21" s="25"/>
       <c r="C21" s="21"/>
@@ -2100,7 +2104,7 @@
       <c r="P21"/>
       <c r="Q21"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="18">
         <v>9</v>
       </c>
@@ -2126,7 +2130,7 @@
       <c r="P22"/>
       <c r="Q22"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="18"/>
       <c r="B23" s="19"/>
       <c r="C23" s="21"/>
@@ -2146,7 +2150,7 @@
       <c r="P23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="18"/>
       <c r="B24" s="19"/>
       <c r="C24" s="21"/>
@@ -2164,7 +2168,7 @@
       <c r="P24"/>
       <c r="Q24"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" s="18"/>
       <c r="B25" s="19"/>
       <c r="C25" s="21"/>
@@ -2182,7 +2186,7 @@
       <c r="P25"/>
       <c r="Q25"/>
     </row>
-    <row r="26" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="18">
         <v>10</v>
       </c>
@@ -2208,7 +2212,7 @@
       <c r="P26"/>
       <c r="Q26"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="18"/>
       <c r="B27" s="20"/>
       <c r="C27" s="18"/>
@@ -2226,7 +2230,7 @@
       <c r="P27"/>
       <c r="Q27"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" s="18"/>
       <c r="B28" s="20"/>
       <c r="C28" s="18"/>
@@ -2244,7 +2248,7 @@
       <c r="P28"/>
       <c r="Q28"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" s="18"/>
       <c r="B29" s="20"/>
       <c r="C29" s="18"/>
@@ -2262,7 +2266,7 @@
       <c r="P29"/>
       <c r="Q29"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="18">
         <v>11</v>
       </c>
@@ -2284,7 +2288,7 @@
       <c r="P30"/>
       <c r="Q30"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="18">
         <v>12</v>
       </c>
@@ -2306,7 +2310,7 @@
       <c r="P31"/>
       <c r="Q31"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="18">
         <v>13</v>
       </c>
@@ -2328,7 +2332,7 @@
       <c r="P32"/>
       <c r="Q32"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="18">
         <v>14</v>
       </c>
@@ -2351,7 +2355,7 @@
       <c r="P33"/>
       <c r="Q33"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="18"/>
       <c r="B34" s="26"/>
       <c r="C34" s="18"/>
@@ -2368,7 +2372,7 @@
       <c r="P34"/>
       <c r="Q34"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="18"/>
       <c r="B35" s="26"/>
       <c r="C35" s="18"/>
@@ -2385,7 +2389,7 @@
       <c r="P35"/>
       <c r="Q35"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" s="18"/>
       <c r="B36" s="26"/>
       <c r="C36" s="18"/>
@@ -2404,7 +2408,7 @@
       <c r="P36"/>
       <c r="Q36"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="18"/>
       <c r="B37" s="26"/>
       <c r="C37" s="18"/>
@@ -2421,7 +2425,7 @@
       <c r="P37"/>
       <c r="Q37"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38" s="18">
         <v>16</v>
       </c>
@@ -2448,7 +2452,7 @@
       <c r="P38"/>
       <c r="Q38"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
       <c r="C39" s="22"/>
@@ -2469,7 +2473,7 @@
       <c r="P39"/>
       <c r="Q39"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
       <c r="C40" s="22"/>
@@ -2488,7 +2492,7 @@
       <c r="P40"/>
       <c r="Q40"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41" s="18">
         <v>17</v>
       </c>
@@ -2513,7 +2517,7 @@
       <c r="P41"/>
       <c r="Q41"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A42" s="18"/>
       <c r="B42" s="21"/>
       <c r="C42" s="22"/>
@@ -2534,7 +2538,7 @@
       <c r="P42"/>
       <c r="Q42"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A43" s="18"/>
       <c r="B43" s="21"/>
       <c r="C43" s="22"/>
@@ -2555,7 +2559,7 @@
       <c r="P43"/>
       <c r="Q43"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A44" s="18">
         <v>18</v>
       </c>
@@ -2584,7 +2588,7 @@
       <c r="P44"/>
       <c r="Q44"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="18"/>
       <c r="B45" s="21"/>
       <c r="C45" s="22"/>
@@ -2602,7 +2606,7 @@
       <c r="P45"/>
       <c r="Q45"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
       <c r="C46" s="22"/>
@@ -2618,14 +2622,14 @@
       <c r="P46"/>
       <c r="Q46"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="52" t="s">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A47" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="B47" s="52"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
+      <c r="B47" s="71"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="71"/>
       <c r="F47" s="17"/>
       <c r="L47"/>
       <c r="M47"/>
@@ -2634,7 +2638,7 @@
       <c r="P47"/>
       <c r="Q47"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A48" s="18">
         <v>19</v>
       </c>
@@ -2662,7 +2666,7 @@
       <c r="P48"/>
       <c r="Q48"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A49" s="18">
         <v>20</v>
       </c>
@@ -2684,11 +2688,11 @@
       <c r="P49"/>
       <c r="Q49"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50" s="45">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A50" s="49">
         <v>21</v>
       </c>
-      <c r="B50" s="45" t="s">
+      <c r="B50" s="49" t="s">
         <v>42</v>
       </c>
       <c r="C50" s="17"/>
@@ -2704,9 +2708,9 @@
       <c r="P50"/>
       <c r="Q50"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A51" s="46"/>
-      <c r="B51" s="46"/>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A51" s="50"/>
+      <c r="B51" s="50"/>
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
       <c r="E51" s="22" t="s">
@@ -2720,11 +2724,11 @@
       <c r="P51"/>
       <c r="Q51"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A52" s="45">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A52" s="49">
         <v>22</v>
       </c>
-      <c r="B52" s="45" t="s">
+      <c r="B52" s="49" t="s">
         <v>45</v>
       </c>
       <c r="C52" s="22" t="s">
@@ -2744,9 +2748,9 @@
       <c r="P52"/>
       <c r="Q52"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A53" s="46"/>
-      <c r="B53" s="46"/>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A53" s="50"/>
+      <c r="B53" s="50"/>
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
       <c r="E53" s="22" t="s">
@@ -2760,7 +2764,7 @@
       <c r="P53"/>
       <c r="Q53"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A54" s="18">
         <v>23</v>
       </c>
@@ -2784,7 +2788,7 @@
       <c r="P54"/>
       <c r="Q54"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A55" s="18">
         <v>24</v>
       </c>
@@ -2804,7 +2808,7 @@
       <c r="P55"/>
       <c r="Q55"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A56" s="18">
         <v>25</v>
       </c>
@@ -2824,7 +2828,7 @@
       <c r="P56"/>
       <c r="Q56"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A57" s="18">
         <v>26</v>
       </c>
@@ -2848,7 +2852,7 @@
       <c r="P57"/>
       <c r="Q57"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A58" s="18">
         <v>27</v>
       </c>
@@ -2872,11 +2876,11 @@
       <c r="P58"/>
       <c r="Q58"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A59" s="45">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A59" s="49">
         <v>28</v>
       </c>
-      <c r="B59" s="50">
+      <c r="B59" s="69">
         <v>43624</v>
       </c>
       <c r="C59" s="22"/>
@@ -2886,9 +2890,9 @@
       </c>
       <c r="F59" s="17"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A60" s="46"/>
-      <c r="B60" s="51"/>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A60" s="50"/>
+      <c r="B60" s="70"/>
       <c r="C60" s="22"/>
       <c r="D60" s="22"/>
       <c r="E60" s="22" t="s">
@@ -2896,7 +2900,7 @@
       </c>
       <c r="F60" s="17"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A61" s="18">
         <v>29</v>
       </c>
@@ -2910,11 +2914,11 @@
       <c r="E61" s="22"/>
       <c r="F61" s="17"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A62" s="45">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A62" s="49">
         <v>30</v>
       </c>
-      <c r="B62" s="50">
+      <c r="B62" s="69">
         <v>43746</v>
       </c>
       <c r="C62" s="22" t="s">
@@ -2928,9 +2932,9 @@
       </c>
       <c r="F62" s="17"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A63" s="46"/>
-      <c r="B63" s="51"/>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A63" s="50"/>
+      <c r="B63" s="70"/>
       <c r="C63" s="22"/>
       <c r="D63" s="22" t="s">
         <v>16</v>
@@ -2940,11 +2944,11 @@
       </c>
       <c r="F63" s="17"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A64" s="45">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A64" s="49">
         <v>31</v>
       </c>
-      <c r="B64" s="53">
+      <c r="B64" s="61">
         <v>43777</v>
       </c>
       <c r="C64" s="22" t="s">
@@ -2958,9 +2962,9 @@
       </c>
       <c r="F64" s="17"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="46"/>
-      <c r="B65" s="46"/>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" s="50"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="17"/>
       <c r="D65" s="17" t="s">
         <v>56</v>
@@ -2970,11 +2974,11 @@
       </c>
       <c r="F65" s="17"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="45">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" s="49">
         <v>32</v>
       </c>
-      <c r="B66" s="45" t="s">
+      <c r="B66" s="49" t="s">
         <v>59</v>
       </c>
       <c r="C66" s="17"/>
@@ -2984,9 +2988,9 @@
       </c>
       <c r="F66" s="17"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="46"/>
-      <c r="B67" s="46"/>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" s="50"/>
+      <c r="B67" s="50"/>
       <c r="C67" s="17"/>
       <c r="D67" s="17"/>
       <c r="E67" s="17" t="s">
@@ -2994,11 +2998,11 @@
       </c>
       <c r="F67" s="17"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="45">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" s="49">
         <v>33</v>
       </c>
-      <c r="B68" s="45" t="s">
+      <c r="B68" s="49" t="s">
         <v>57</v>
       </c>
       <c r="C68" s="17"/>
@@ -3008,9 +3012,9 @@
       <c r="E68" s="17"/>
       <c r="F68" s="17"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="46"/>
-      <c r="B69" s="46"/>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69" s="50"/>
+      <c r="B69" s="50"/>
       <c r="C69" s="17"/>
       <c r="D69" s="17" t="s">
         <v>69</v>
@@ -3018,9 +3022,9 @@
       <c r="E69" s="17"/>
       <c r="F69" s="17"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="46"/>
-      <c r="B70" s="46"/>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" s="50"/>
+      <c r="B70" s="50"/>
       <c r="C70" s="17"/>
       <c r="D70" s="17" t="s">
         <v>58</v>
@@ -3028,11 +3032,11 @@
       <c r="E70" s="17"/>
       <c r="F70" s="17"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="45">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71" s="49">
         <v>34</v>
       </c>
-      <c r="B71" s="45" t="s">
+      <c r="B71" s="49" t="s">
         <v>122</v>
       </c>
       <c r="C71" s="17"/>
@@ -3044,9 +3048,9 @@
       </c>
       <c r="F71" s="17"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="46"/>
-      <c r="B72" s="46"/>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" s="50"/>
+      <c r="B72" s="50"/>
       <c r="C72" s="17"/>
       <c r="D72" s="17" t="s">
         <v>69</v>
@@ -3056,9 +3060,9 @@
       </c>
       <c r="F72" s="17"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="46"/>
-      <c r="B73" s="46"/>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73" s="50"/>
+      <c r="B73" s="50"/>
       <c r="C73" s="17"/>
       <c r="D73" s="17" t="s">
         <v>56</v>
@@ -3068,11 +3072,11 @@
       </c>
       <c r="F73" s="17"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="45">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" s="49">
         <v>35</v>
       </c>
-      <c r="B74" s="45" t="s">
+      <c r="B74" s="49" t="s">
         <v>123</v>
       </c>
       <c r="C74" s="17" t="s">
@@ -3086,9 +3090,9 @@
       </c>
       <c r="F74" s="17"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="46"/>
-      <c r="B75" s="46"/>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75" s="50"/>
+      <c r="B75" s="50"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17" t="s">
         <v>58</v>
@@ -3098,9 +3102,9 @@
       </c>
       <c r="F75" s="17"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="46"/>
-      <c r="B76" s="46"/>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A76" s="50"/>
+      <c r="B76" s="50"/>
       <c r="C76" s="17"/>
       <c r="D76" s="17" t="s">
         <v>16</v>
@@ -3110,11 +3114,11 @@
       </c>
       <c r="F76" s="17"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="55">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77" s="64">
         <v>36</v>
       </c>
-      <c r="B77" s="55" t="s">
+      <c r="B77" s="64" t="s">
         <v>124</v>
       </c>
       <c r="C77" s="39"/>
@@ -3126,9 +3130,9 @@
       </c>
       <c r="F77" s="39"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="56"/>
-      <c r="B78" s="56"/>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" s="65"/>
+      <c r="B78" s="65"/>
       <c r="C78" s="39"/>
       <c r="D78" s="39" t="s">
         <v>53</v>
@@ -3138,9 +3142,9 @@
       </c>
       <c r="F78" s="39"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="56"/>
-      <c r="B79" s="56"/>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A79" s="65"/>
+      <c r="B79" s="65"/>
       <c r="C79" s="39"/>
       <c r="D79" s="39" t="s">
         <v>58</v>
@@ -3150,11 +3154,11 @@
       </c>
       <c r="F79" s="39"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="45">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" s="49">
         <v>37</v>
       </c>
-      <c r="B80" s="45" t="s">
+      <c r="B80" s="49" t="s">
         <v>64</v>
       </c>
       <c r="C80" s="17"/>
@@ -3166,9 +3170,9 @@
       </c>
       <c r="F80" s="17"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="46"/>
-      <c r="B81" s="46"/>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" s="50"/>
+      <c r="B81" s="50"/>
       <c r="C81" s="17"/>
       <c r="D81" s="17"/>
       <c r="E81" s="17" t="s">
@@ -3176,9 +3180,9 @@
       </c>
       <c r="F81" s="17"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="46"/>
-      <c r="B82" s="46"/>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82" s="50"/>
+      <c r="B82" s="50"/>
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
       <c r="E82" s="17" t="s">
@@ -3186,9 +3190,9 @@
       </c>
       <c r="F82" s="17"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="46"/>
-      <c r="B83" s="46"/>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A83" s="50"/>
+      <c r="B83" s="50"/>
       <c r="C83" s="17"/>
       <c r="D83" s="17"/>
       <c r="E83" s="17" t="s">
@@ -3196,11 +3200,11 @@
       </c>
       <c r="F83" s="17"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="45">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84" s="49">
         <v>38</v>
       </c>
-      <c r="B84" s="45" t="s">
+      <c r="B84" s="49" t="s">
         <v>66</v>
       </c>
       <c r="C84" s="17"/>
@@ -3212,9 +3216,9 @@
       </c>
       <c r="F84" s="17"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="46"/>
-      <c r="B85" s="46"/>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85" s="50"/>
+      <c r="B85" s="50"/>
       <c r="C85" s="17"/>
       <c r="D85" s="17"/>
       <c r="E85" s="17" t="s">
@@ -3222,9 +3226,9 @@
       </c>
       <c r="F85" s="17"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="46"/>
-      <c r="B86" s="46"/>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A86" s="50"/>
+      <c r="B86" s="50"/>
       <c r="C86" s="17"/>
       <c r="D86" s="17"/>
       <c r="E86" s="17" t="s">
@@ -3232,9 +3236,9 @@
       </c>
       <c r="F86" s="17"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="46"/>
-      <c r="B87" s="46"/>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A87" s="50"/>
+      <c r="B87" s="50"/>
       <c r="C87" s="17"/>
       <c r="D87" s="17"/>
       <c r="E87" s="17" t="s">
@@ -3242,11 +3246,11 @@
       </c>
       <c r="F87" s="17"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="45">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A88" s="49">
         <v>39</v>
       </c>
-      <c r="B88" s="45" t="s">
+      <c r="B88" s="49" t="s">
         <v>68</v>
       </c>
       <c r="C88" s="17" t="s">
@@ -3260,9 +3264,9 @@
       </c>
       <c r="F88" s="17"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="46"/>
-      <c r="B89" s="46"/>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A89" s="50"/>
+      <c r="B89" s="50"/>
       <c r="C89" s="17"/>
       <c r="D89" s="17" t="s">
         <v>53</v>
@@ -3272,9 +3276,9 @@
       </c>
       <c r="F89" s="17"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="46"/>
-      <c r="B90" s="46"/>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A90" s="50"/>
+      <c r="B90" s="50"/>
       <c r="C90" s="17"/>
       <c r="D90" s="17" t="s">
         <v>60</v>
@@ -3284,9 +3288,9 @@
       </c>
       <c r="F90" s="17"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="46"/>
-      <c r="B91" s="46"/>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A91" s="50"/>
+      <c r="B91" s="50"/>
       <c r="C91" s="17"/>
       <c r="D91" s="17"/>
       <c r="E91" s="17" t="s">
@@ -3294,7 +3298,7 @@
       </c>
       <c r="F91" s="17"/>
     </row>
-    <row r="92" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="38">
         <v>40</v>
       </c>
@@ -3312,11 +3316,11 @@
       </c>
       <c r="F92" s="39"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="45">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A93" s="49">
         <v>41</v>
       </c>
-      <c r="B93" s="45" t="s">
+      <c r="B93" s="49" t="s">
         <v>72</v>
       </c>
       <c r="C93" s="17"/>
@@ -3328,9 +3332,9 @@
       </c>
       <c r="F93" s="17"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="46"/>
-      <c r="B94" s="46"/>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A94" s="50"/>
+      <c r="B94" s="50"/>
       <c r="C94" s="17"/>
       <c r="D94" s="17" t="s">
         <v>53</v>
@@ -3340,9 +3344,9 @@
       </c>
       <c r="F94" s="17"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="46"/>
-      <c r="B95" s="46"/>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A95" s="50"/>
+      <c r="B95" s="50"/>
       <c r="C95" s="17"/>
       <c r="D95" s="17"/>
       <c r="E95" s="17" t="s">
@@ -3350,9 +3354,9 @@
       </c>
       <c r="F95" s="17"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="46"/>
-      <c r="B96" s="46"/>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A96" s="50"/>
+      <c r="B96" s="50"/>
       <c r="C96" s="17"/>
       <c r="D96" s="17"/>
       <c r="E96" s="17" t="s">
@@ -3360,9 +3364,9 @@
       </c>
       <c r="F96" s="17"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="46"/>
-      <c r="B97" s="46"/>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A97" s="50"/>
+      <c r="B97" s="50"/>
       <c r="C97" s="17"/>
       <c r="D97" s="17"/>
       <c r="E97" s="17" t="s">
@@ -3370,11 +3374,11 @@
       </c>
       <c r="F97" s="17"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="45">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98" s="49">
         <v>42</v>
       </c>
-      <c r="B98" s="45" t="s">
+      <c r="B98" s="49" t="s">
         <v>74</v>
       </c>
       <c r="C98" s="17"/>
@@ -3386,9 +3390,9 @@
       </c>
       <c r="F98" s="17"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="46"/>
-      <c r="B99" s="46"/>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99" s="50"/>
+      <c r="B99" s="50"/>
       <c r="C99" s="17"/>
       <c r="D99" s="17" t="s">
         <v>53</v>
@@ -3398,9 +3402,9 @@
       </c>
       <c r="F99" s="17"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="46"/>
-      <c r="B100" s="46"/>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A100" s="50"/>
+      <c r="B100" s="50"/>
       <c r="C100" s="17"/>
       <c r="D100" s="17"/>
       <c r="E100" s="17" t="s">
@@ -3408,9 +3412,9 @@
       </c>
       <c r="F100" s="17"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="46"/>
-      <c r="B101" s="46"/>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A101" s="50"/>
+      <c r="B101" s="50"/>
       <c r="C101" s="17"/>
       <c r="D101" s="17"/>
       <c r="E101" s="17" t="s">
@@ -3418,9 +3422,9 @@
       </c>
       <c r="F101" s="17"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="46"/>
-      <c r="B102" s="46"/>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A102" s="50"/>
+      <c r="B102" s="50"/>
       <c r="C102" s="17"/>
       <c r="D102" s="17"/>
       <c r="E102" s="17" t="s">
@@ -3428,11 +3432,11 @@
       </c>
       <c r="F102" s="17"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="45">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A103" s="49">
         <v>43</v>
       </c>
-      <c r="B103" s="45" t="s">
+      <c r="B103" s="49" t="s">
         <v>75</v>
       </c>
       <c r="C103" s="17" t="s">
@@ -3446,9 +3450,9 @@
       </c>
       <c r="F103" s="17"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="46"/>
-      <c r="B104" s="46"/>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A104" s="50"/>
+      <c r="B104" s="50"/>
       <c r="C104" s="17"/>
       <c r="D104" s="17" t="s">
         <v>78</v>
@@ -3458,9 +3462,9 @@
       </c>
       <c r="F104" s="17"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="46"/>
-      <c r="B105" s="46"/>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A105" s="50"/>
+      <c r="B105" s="50"/>
       <c r="C105" s="17"/>
       <c r="D105" s="17"/>
       <c r="E105" s="17" t="s">
@@ -3468,9 +3472,9 @@
       </c>
       <c r="F105" s="17"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="46"/>
-      <c r="B106" s="46"/>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A106" s="50"/>
+      <c r="B106" s="50"/>
       <c r="C106" s="17"/>
       <c r="D106" s="17"/>
       <c r="E106" s="17" t="s">
@@ -3478,9 +3482,9 @@
       </c>
       <c r="F106" s="17"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="46"/>
-      <c r="B107" s="46"/>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A107" s="50"/>
+      <c r="B107" s="50"/>
       <c r="C107" s="17"/>
       <c r="D107" s="17"/>
       <c r="E107" s="17" t="s">
@@ -3488,11 +3492,11 @@
       </c>
       <c r="F107" s="17"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="45">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A108" s="49">
         <v>44</v>
       </c>
-      <c r="B108" s="53">
+      <c r="B108" s="61">
         <v>43474</v>
       </c>
       <c r="C108" s="17"/>
@@ -3504,9 +3508,9 @@
       </c>
       <c r="F108" s="17"/>
     </row>
-    <row r="109" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="46"/>
-      <c r="B109" s="58"/>
+    <row r="109" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="50"/>
+      <c r="B109" s="62"/>
       <c r="C109" s="17"/>
       <c r="D109" s="17" t="s">
         <v>80</v>
@@ -3516,9 +3520,9 @@
       </c>
       <c r="F109" s="17"/>
     </row>
-    <row r="110" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="46"/>
-      <c r="B110" s="58"/>
+    <row r="110" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="50"/>
+      <c r="B110" s="62"/>
       <c r="C110" s="17"/>
       <c r="D110" s="17"/>
       <c r="E110" s="17" t="s">
@@ -3526,9 +3530,9 @@
       </c>
       <c r="F110" s="17"/>
     </row>
-    <row r="111" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="46"/>
-      <c r="B111" s="58"/>
+    <row r="111" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="50"/>
+      <c r="B111" s="62"/>
       <c r="C111" s="17"/>
       <c r="D111" s="17"/>
       <c r="E111" s="17" t="s">
@@ -3536,9 +3540,9 @@
       </c>
       <c r="F111" s="17"/>
     </row>
-    <row r="112" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="46"/>
-      <c r="B112" s="59"/>
+    <row r="112" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="50"/>
+      <c r="B112" s="63"/>
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="17" t="s">
@@ -3546,11 +3550,11 @@
       </c>
       <c r="F112" s="17"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="45">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A113" s="49">
         <v>45</v>
       </c>
-      <c r="B113" s="45" t="s">
+      <c r="B113" s="49" t="s">
         <v>84</v>
       </c>
       <c r="C113" s="17" t="s">
@@ -3566,9 +3570,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="46"/>
-      <c r="B114" s="46"/>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A114" s="50"/>
+      <c r="B114" s="50"/>
       <c r="C114" s="17"/>
       <c r="D114" s="17" t="s">
         <v>58</v>
@@ -3578,9 +3582,9 @@
       </c>
       <c r="F114" s="17"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="46"/>
-      <c r="B115" s="46"/>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A115" s="50"/>
+      <c r="B115" s="50"/>
       <c r="C115" s="17"/>
       <c r="D115" s="17"/>
       <c r="E115" s="17" t="s">
@@ -3588,9 +3592,9 @@
       </c>
       <c r="F115" s="17"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="46"/>
-      <c r="B116" s="46"/>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A116" s="50"/>
+      <c r="B116" s="50"/>
       <c r="C116" s="17"/>
       <c r="D116" s="17"/>
       <c r="E116" s="17" t="s">
@@ -3598,9 +3602,9 @@
       </c>
       <c r="F116" s="17"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="46"/>
-      <c r="B117" s="46"/>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A117" s="50"/>
+      <c r="B117" s="50"/>
       <c r="C117" s="17"/>
       <c r="D117" s="17"/>
       <c r="E117" s="17" t="s">
@@ -3608,9 +3612,9 @@
       </c>
       <c r="F117" s="17"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="46"/>
-      <c r="B118" s="46"/>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A118" s="50"/>
+      <c r="B118" s="50"/>
       <c r="C118" s="17"/>
       <c r="D118" s="17"/>
       <c r="E118" s="17" t="s">
@@ -3618,9 +3622,9 @@
       </c>
       <c r="F118" s="17"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="54"/>
-      <c r="B119" s="54"/>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A119" s="51"/>
+      <c r="B119" s="51"/>
       <c r="C119" s="17"/>
       <c r="D119" s="17"/>
       <c r="E119" s="17" t="s">
@@ -3628,11 +3632,11 @@
       </c>
       <c r="F119" s="17"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="45">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A120" s="49">
         <v>46</v>
       </c>
-      <c r="B120" s="45" t="s">
+      <c r="B120" s="49" t="s">
         <v>100</v>
       </c>
       <c r="C120" s="17" t="s">
@@ -3646,9 +3650,9 @@
       </c>
       <c r="F120" s="17"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="46"/>
-      <c r="B121" s="46"/>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A121" s="50"/>
+      <c r="B121" s="50"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17" t="s">
         <v>58</v>
@@ -3658,9 +3662,9 @@
       </c>
       <c r="F121" s="17"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="46"/>
-      <c r="B122" s="46"/>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A122" s="50"/>
+      <c r="B122" s="50"/>
       <c r="C122" s="17"/>
       <c r="D122" s="17"/>
       <c r="E122" s="17" t="s">
@@ -3668,9 +3672,9 @@
       </c>
       <c r="F122" s="17"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="46"/>
-      <c r="B123" s="46"/>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A123" s="50"/>
+      <c r="B123" s="50"/>
       <c r="C123" s="17"/>
       <c r="D123" s="17"/>
       <c r="E123" s="17" t="s">
@@ -3678,9 +3682,9 @@
       </c>
       <c r="F123" s="17"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="46"/>
-      <c r="B124" s="46"/>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A124" s="50"/>
+      <c r="B124" s="50"/>
       <c r="C124" s="17"/>
       <c r="D124" s="17"/>
       <c r="E124" s="17" t="s">
@@ -3688,9 +3692,9 @@
       </c>
       <c r="F124" s="17"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="46"/>
-      <c r="B125" s="46"/>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A125" s="50"/>
+      <c r="B125" s="50"/>
       <c r="C125" s="17"/>
       <c r="D125" s="17"/>
       <c r="E125" s="17" t="s">
@@ -3698,9 +3702,9 @@
       </c>
       <c r="F125" s="17"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="54"/>
-      <c r="B126" s="54"/>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A126" s="51"/>
+      <c r="B126" s="51"/>
       <c r="C126" s="17"/>
       <c r="D126" s="17"/>
       <c r="E126" s="17" t="s">
@@ -3708,11 +3712,11 @@
       </c>
       <c r="F126" s="17"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="45">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A127" s="49">
         <v>47</v>
       </c>
-      <c r="B127" s="45" t="s">
+      <c r="B127" s="49" t="s">
         <v>99</v>
       </c>
       <c r="C127" s="17"/>
@@ -3724,9 +3728,9 @@
       </c>
       <c r="F127" s="17"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="46"/>
-      <c r="B128" s="46"/>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A128" s="50"/>
+      <c r="B128" s="50"/>
       <c r="C128" s="17"/>
       <c r="D128" s="17" t="s">
         <v>58</v>
@@ -3736,9 +3740,9 @@
       </c>
       <c r="F128" s="17"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="46"/>
-      <c r="B129" s="46"/>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A129" s="50"/>
+      <c r="B129" s="50"/>
       <c r="C129" s="17"/>
       <c r="D129" s="17"/>
       <c r="E129" s="17" t="s">
@@ -3746,9 +3750,9 @@
       </c>
       <c r="F129" s="17"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="46"/>
-      <c r="B130" s="46"/>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A130" s="50"/>
+      <c r="B130" s="50"/>
       <c r="C130" s="17"/>
       <c r="D130" s="17"/>
       <c r="E130" s="17" t="s">
@@ -3756,9 +3760,9 @@
       </c>
       <c r="F130" s="17"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="46"/>
-      <c r="B131" s="46"/>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A131" s="50"/>
+      <c r="B131" s="50"/>
       <c r="C131" s="17"/>
       <c r="D131" s="17"/>
       <c r="E131" s="17" t="s">
@@ -3766,9 +3770,9 @@
       </c>
       <c r="F131" s="17"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="54"/>
-      <c r="B132" s="54"/>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A132" s="51"/>
+      <c r="B132" s="51"/>
       <c r="C132" s="17"/>
       <c r="D132" s="17"/>
       <c r="E132" s="17" t="s">
@@ -3776,11 +3780,11 @@
       </c>
       <c r="F132" s="17"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="45">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A133" s="49">
         <v>48</v>
       </c>
-      <c r="B133" s="45" t="s">
+      <c r="B133" s="49" t="s">
         <v>98</v>
       </c>
       <c r="C133" s="17"/>
@@ -3794,9 +3798,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" s="46"/>
-      <c r="B134" s="46"/>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A134" s="50"/>
+      <c r="B134" s="50"/>
       <c r="C134" s="17"/>
       <c r="D134" s="17" t="s">
         <v>58</v>
@@ -3806,9 +3810,9 @@
       </c>
       <c r="F134" s="17"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="46"/>
-      <c r="B135" s="46"/>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A135" s="50"/>
+      <c r="B135" s="50"/>
       <c r="C135" s="17"/>
       <c r="D135" s="17" t="s">
         <v>93</v>
@@ -3818,9 +3822,9 @@
       </c>
       <c r="F135" s="17"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" s="46"/>
-      <c r="B136" s="46"/>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A136" s="50"/>
+      <c r="B136" s="50"/>
       <c r="C136" s="17"/>
       <c r="D136" s="17"/>
       <c r="E136" s="17" t="s">
@@ -3828,9 +3832,9 @@
       </c>
       <c r="F136" s="17"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="46"/>
-      <c r="B137" s="46"/>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A137" s="50"/>
+      <c r="B137" s="50"/>
       <c r="C137" s="17"/>
       <c r="D137" s="17"/>
       <c r="E137" s="17" t="s">
@@ -3838,9 +3842,9 @@
       </c>
       <c r="F137" s="17"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" s="54"/>
-      <c r="B138" s="54"/>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A138" s="51"/>
+      <c r="B138" s="51"/>
       <c r="C138" s="17"/>
       <c r="D138" s="17"/>
       <c r="E138" s="17" t="s">
@@ -3848,7 +3852,7 @@
       </c>
       <c r="F138" s="17"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" s="30">
         <v>49</v>
       </c>
@@ -3862,11 +3866,11 @@
       <c r="E139" s="60"/>
       <c r="F139" s="60"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="45">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A140" s="49">
         <v>50</v>
       </c>
-      <c r="B140" s="45" t="s">
+      <c r="B140" s="49" t="s">
         <v>96</v>
       </c>
       <c r="C140" s="17" t="s">
@@ -3880,9 +3884,9 @@
       </c>
       <c r="F140" s="17"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="46"/>
-      <c r="B141" s="46"/>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A141" s="50"/>
+      <c r="B141" s="50"/>
       <c r="C141" s="17"/>
       <c r="D141" s="17" t="s">
         <v>58</v>
@@ -3892,9 +3896,9 @@
       </c>
       <c r="F141" s="17"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" s="46"/>
-      <c r="B142" s="46"/>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A142" s="50"/>
+      <c r="B142" s="50"/>
       <c r="C142" s="17"/>
       <c r="D142" s="17" t="s">
         <v>93</v>
@@ -3904,9 +3908,9 @@
       </c>
       <c r="F142" s="17"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="46"/>
-      <c r="B143" s="46"/>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A143" s="50"/>
+      <c r="B143" s="50"/>
       <c r="C143" s="17"/>
       <c r="D143" s="17"/>
       <c r="E143" s="17" t="s">
@@ -3914,9 +3918,9 @@
       </c>
       <c r="F143" s="17"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" s="46"/>
-      <c r="B144" s="46"/>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A144" s="50"/>
+      <c r="B144" s="50"/>
       <c r="C144" s="17"/>
       <c r="D144" s="17"/>
       <c r="E144" s="17" t="s">
@@ -3924,9 +3928,9 @@
       </c>
       <c r="F144" s="17"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="54"/>
-      <c r="B145" s="54"/>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A145" s="51"/>
+      <c r="B145" s="51"/>
       <c r="C145" s="17"/>
       <c r="D145" s="17"/>
       <c r="E145" s="17" t="s">
@@ -3934,11 +3938,11 @@
       </c>
       <c r="F145" s="17"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="45">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A146" s="49">
         <v>51</v>
       </c>
-      <c r="B146" s="45" t="s">
+      <c r="B146" s="49" t="s">
         <v>107</v>
       </c>
       <c r="C146" s="17"/>
@@ -3950,9 +3954,9 @@
       </c>
       <c r="F146" s="17"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="46"/>
-      <c r="B147" s="46"/>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A147" s="50"/>
+      <c r="B147" s="50"/>
       <c r="C147" s="17"/>
       <c r="D147" s="17" t="s">
         <v>108</v>
@@ -3962,9 +3966,9 @@
       </c>
       <c r="F147" s="17"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="46"/>
-      <c r="B148" s="46"/>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A148" s="50"/>
+      <c r="B148" s="50"/>
       <c r="C148" s="17"/>
       <c r="D148" s="17" t="s">
         <v>93</v>
@@ -3974,9 +3978,9 @@
       </c>
       <c r="F148" s="17"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="46"/>
-      <c r="B149" s="46"/>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A149" s="50"/>
+      <c r="B149" s="50"/>
       <c r="C149" s="17"/>
       <c r="D149" s="17"/>
       <c r="E149" s="17" t="s">
@@ -3984,9 +3988,9 @@
       </c>
       <c r="F149" s="17"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" s="46"/>
-      <c r="B150" s="46"/>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A150" s="50"/>
+      <c r="B150" s="50"/>
       <c r="C150" s="17"/>
       <c r="D150" s="17"/>
       <c r="E150" s="17" t="s">
@@ -3994,9 +3998,9 @@
       </c>
       <c r="F150" s="17"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="54"/>
-      <c r="B151" s="54"/>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A151" s="51"/>
+      <c r="B151" s="51"/>
       <c r="C151" s="17"/>
       <c r="D151" s="17"/>
       <c r="E151" s="17" t="s">
@@ -4004,8 +4008,8 @@
       </c>
       <c r="F151" s="17"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="45">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A152" s="49">
         <v>52</v>
       </c>
       <c r="B152" s="57" t="s">
@@ -4019,8 +4023,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="46"/>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A153" s="50"/>
       <c r="B153" s="57"/>
       <c r="C153" s="17"/>
       <c r="D153" s="17" t="s">
@@ -4030,8 +4034,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="46"/>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A154" s="50"/>
       <c r="B154" s="57"/>
       <c r="C154" s="17"/>
       <c r="D154" s="17"/>
@@ -4039,8 +4043,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="46"/>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A155" s="50"/>
       <c r="B155" s="57"/>
       <c r="C155" s="17"/>
       <c r="D155" s="17"/>
@@ -4048,8 +4052,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" s="46"/>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A156" s="50"/>
       <c r="B156" s="57"/>
       <c r="C156" s="17"/>
       <c r="D156" s="17"/>
@@ -4057,8 +4061,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="54"/>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A157" s="51"/>
       <c r="B157" s="57"/>
       <c r="C157" s="17"/>
       <c r="D157" s="17"/>
@@ -4066,7 +4070,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A158" s="57">
         <v>53</v>
       </c>
@@ -4083,7 +4087,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A159" s="57"/>
       <c r="B159" s="57"/>
       <c r="C159" s="17"/>
@@ -4094,7 +4098,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A160" s="57"/>
       <c r="B160" s="57"/>
       <c r="C160" s="17"/>
@@ -4103,7 +4107,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A161" s="57"/>
       <c r="B161" s="57"/>
       <c r="C161" s="17"/>
@@ -4112,7 +4116,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A162" s="57"/>
       <c r="B162" s="57"/>
       <c r="C162" s="17"/>
@@ -4121,7 +4125,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A163" s="57"/>
       <c r="B163" s="57"/>
       <c r="C163" s="17"/>
@@ -4130,7 +4134,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A164" s="57">
         <v>54</v>
       </c>
@@ -4147,7 +4151,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A165" s="57"/>
       <c r="B165" s="57"/>
       <c r="C165" s="17"/>
@@ -4158,7 +4162,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A166" s="57"/>
       <c r="B166" s="57"/>
       <c r="C166" s="17"/>
@@ -4167,7 +4171,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A167" s="57"/>
       <c r="B167" s="57"/>
       <c r="C167" s="17"/>
@@ -4176,7 +4180,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A168" s="57"/>
       <c r="B168" s="57"/>
       <c r="C168" s="17"/>
@@ -4185,7 +4189,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A169" s="57"/>
       <c r="B169" s="57"/>
       <c r="C169" s="17"/>
@@ -4194,11 +4198,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A170" s="45">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A170" s="49">
         <v>55</v>
       </c>
-      <c r="B170" s="62">
+      <c r="B170" s="58">
         <v>43475</v>
       </c>
       <c r="C170" s="17"/>
@@ -4209,36 +4213,36 @@
         <v>55</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A171" s="46"/>
-      <c r="B171" s="62"/>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A171" s="50"/>
+      <c r="B171" s="58"/>
       <c r="C171" s="17"/>
       <c r="D171" s="17"/>
       <c r="E171" s="17"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A172" s="46"/>
-      <c r="B172" s="62"/>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A172" s="50"/>
+      <c r="B172" s="58"/>
       <c r="C172" s="17"/>
       <c r="D172" s="17"/>
       <c r="E172" s="17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A173" s="54"/>
-      <c r="B173" s="62"/>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A173" s="51"/>
+      <c r="B173" s="58"/>
       <c r="C173" s="17"/>
       <c r="D173" s="17"/>
       <c r="E173" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A174" s="45">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A174" s="49">
         <v>56</v>
       </c>
-      <c r="B174" s="62">
+      <c r="B174" s="58">
         <v>43534</v>
       </c>
       <c r="C174" s="17"/>
@@ -4249,9 +4253,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A175" s="46"/>
-      <c r="B175" s="62"/>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A175" s="50"/>
+      <c r="B175" s="58"/>
       <c r="C175" s="17"/>
       <c r="D175" s="17" t="s">
         <v>127</v>
@@ -4260,9 +4264,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A176" s="46"/>
-      <c r="B176" s="62"/>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A176" s="50"/>
+      <c r="B176" s="58"/>
       <c r="C176" s="17"/>
       <c r="D176" s="17" t="s">
         <v>16</v>
@@ -4271,38 +4275,38 @@
         <v>65</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" s="46"/>
-      <c r="B177" s="62"/>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A177" s="50"/>
+      <c r="B177" s="58"/>
       <c r="C177" s="17"/>
       <c r="D177" s="17"/>
       <c r="E177" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" s="46"/>
-      <c r="B178" s="62"/>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A178" s="50"/>
+      <c r="B178" s="58"/>
       <c r="C178" s="17"/>
       <c r="D178" s="17"/>
       <c r="E178" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" s="54"/>
-      <c r="B179" s="62"/>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A179" s="51"/>
+      <c r="B179" s="58"/>
       <c r="C179" s="17"/>
       <c r="D179" s="17"/>
       <c r="E179" s="17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" s="45">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A180" s="49">
         <v>57</v>
       </c>
-      <c r="B180" s="62">
+      <c r="B180" s="58">
         <v>43595</v>
       </c>
       <c r="C180" s="17" t="s">
@@ -4315,9 +4319,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="46"/>
-      <c r="B181" s="62"/>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A181" s="50"/>
+      <c r="B181" s="58"/>
       <c r="C181" s="17"/>
       <c r="D181" s="17" t="s">
         <v>127</v>
@@ -4326,9 +4330,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" s="54"/>
-      <c r="B182" s="62"/>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A182" s="51"/>
+      <c r="B182" s="58"/>
       <c r="C182" s="17"/>
       <c r="D182" s="17" t="s">
         <v>16</v>
@@ -4337,24 +4341,24 @@
         <v>92</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" s="67">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A183" s="46">
         <v>58</v>
       </c>
       <c r="B183" s="43">
         <v>43626</v>
       </c>
-      <c r="C183" s="68" t="s">
+      <c r="C183" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="D183" s="69"/>
-      <c r="E183" s="70"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" s="45">
+      <c r="D183" s="53"/>
+      <c r="E183" s="54"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A184" s="49">
         <v>59</v>
       </c>
-      <c r="B184" s="63">
+      <c r="B184" s="59">
         <v>43746</v>
       </c>
       <c r="C184" s="17"/>
@@ -4365,9 +4369,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A185" s="46"/>
-      <c r="B185" s="63"/>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A185" s="50"/>
+      <c r="B185" s="59"/>
       <c r="C185" s="17"/>
       <c r="D185" s="17" t="s">
         <v>127</v>
@@ -4376,9 +4380,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186" s="54"/>
-      <c r="B186" s="63"/>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A186" s="51"/>
+      <c r="B186" s="59"/>
       <c r="C186" s="17"/>
       <c r="D186" s="17" t="s">
         <v>16</v>
@@ -4387,11 +4391,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" s="45">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A187" s="49">
         <v>60</v>
       </c>
-      <c r="B187" s="64">
+      <c r="B187" s="55">
         <v>43748</v>
       </c>
       <c r="C187" s="17"/>
@@ -4402,9 +4406,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" s="46"/>
-      <c r="B188" s="64"/>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A188" s="50"/>
+      <c r="B188" s="55"/>
       <c r="C188" s="17"/>
       <c r="D188" s="17" t="s">
         <v>127</v>
@@ -4413,9 +4417,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" s="54"/>
-      <c r="B189" s="64"/>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A189" s="51"/>
+      <c r="B189" s="55"/>
       <c r="C189" s="17"/>
       <c r="D189" s="17" t="s">
         <v>16</v>
@@ -4424,11 +4428,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A190" s="45">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A190" s="49">
         <v>61</v>
       </c>
-      <c r="B190" s="64">
+      <c r="B190" s="55">
         <v>43750</v>
       </c>
       <c r="C190" s="17" t="s">
@@ -4441,9 +4445,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191" s="46"/>
-      <c r="B191" s="64"/>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A191" s="50"/>
+      <c r="B191" s="55"/>
       <c r="C191" s="17"/>
       <c r="D191" s="17" t="s">
         <v>127</v>
@@ -4452,9 +4456,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" s="54"/>
-      <c r="B192" s="64"/>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A192" s="51"/>
+      <c r="B192" s="55"/>
       <c r="C192" s="17"/>
       <c r="D192" s="17" t="s">
         <v>16</v>
@@ -4463,11 +4467,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A193" s="45">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A193" s="49">
         <v>62</v>
       </c>
-      <c r="B193" s="64">
+      <c r="B193" s="55">
         <v>43751</v>
       </c>
       <c r="C193" s="17" t="s">
@@ -4480,9 +4484,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" s="46"/>
-      <c r="B194" s="64"/>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A194" s="50"/>
+      <c r="B194" s="55"/>
       <c r="C194" s="17"/>
       <c r="D194" s="17" t="s">
         <v>127</v>
@@ -4491,9 +4495,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" s="54"/>
-      <c r="B195" s="64"/>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A195" s="51"/>
+      <c r="B195" s="55"/>
       <c r="C195" s="17"/>
       <c r="D195" s="17" t="s">
         <v>16</v>
@@ -4502,11 +4506,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" s="45">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A196" s="49">
         <v>63</v>
       </c>
-      <c r="B196" s="64">
+      <c r="B196" s="55">
         <v>43753</v>
       </c>
       <c r="C196" s="17"/>
@@ -4517,9 +4521,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" s="46"/>
-      <c r="B197" s="64"/>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A197" s="50"/>
+      <c r="B197" s="55"/>
       <c r="C197" s="17"/>
       <c r="D197" s="17" t="s">
         <v>127</v>
@@ -4528,20 +4532,20 @@
         <v>55</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" s="54"/>
-      <c r="B198" s="64"/>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A198" s="51"/>
+      <c r="B198" s="55"/>
       <c r="C198" s="17"/>
       <c r="D198" s="17"/>
       <c r="E198" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A199" s="45">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A199" s="49">
         <v>64</v>
       </c>
-      <c r="B199" s="64">
+      <c r="B199" s="55">
         <v>43755</v>
       </c>
       <c r="C199" s="17"/>
@@ -4552,9 +4556,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" s="54"/>
-      <c r="B200" s="64"/>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A200" s="51"/>
+      <c r="B200" s="55"/>
       <c r="C200" s="17"/>
       <c r="D200" s="17" t="s">
         <v>127</v>
@@ -4563,8 +4567,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="45">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A201" s="49">
         <v>65</v>
       </c>
       <c r="B201" s="57" t="s">
@@ -4580,8 +4584,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" s="46"/>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A202" s="50"/>
       <c r="B202" s="57"/>
       <c r="C202" s="17"/>
       <c r="D202" s="17" t="s">
@@ -4591,8 +4595,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="46"/>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A203" s="50"/>
       <c r="B203" s="57"/>
       <c r="C203" s="17"/>
       <c r="D203" s="17" t="s">
@@ -4602,8 +4606,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A204" s="46"/>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A204" s="50"/>
       <c r="B204" s="57"/>
       <c r="C204" s="17"/>
       <c r="D204" s="17"/>
@@ -4611,8 +4615,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A205" s="54"/>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A205" s="51"/>
       <c r="B205" s="57"/>
       <c r="C205" s="17"/>
       <c r="D205" s="17"/>
@@ -4620,8 +4624,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A206" s="45">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A206" s="49">
         <v>66</v>
       </c>
       <c r="B206" s="57" t="s">
@@ -4635,8 +4639,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A207" s="46"/>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A207" s="50"/>
       <c r="B207" s="57"/>
       <c r="C207" s="17"/>
       <c r="D207" s="17" t="s">
@@ -4646,8 +4650,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A208" s="46"/>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A208" s="50"/>
       <c r="B208" s="57"/>
       <c r="C208" s="17"/>
       <c r="D208" s="17"/>
@@ -4655,8 +4659,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A209" s="46"/>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A209" s="50"/>
       <c r="B209" s="57"/>
       <c r="C209" s="17"/>
       <c r="D209" s="17"/>
@@ -4664,8 +4668,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A210" s="54"/>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A210" s="51"/>
       <c r="B210" s="57"/>
       <c r="C210" s="17"/>
       <c r="D210" s="17"/>
@@ -4673,11 +4677,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" s="45">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A211" s="49">
         <v>67</v>
       </c>
-      <c r="B211" s="64">
+      <c r="B211" s="55">
         <v>43760</v>
       </c>
       <c r="C211" s="17"/>
@@ -4688,9 +4692,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" s="54"/>
-      <c r="B212" s="64"/>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A212" s="51"/>
+      <c r="B212" s="55"/>
       <c r="C212" s="17"/>
       <c r="D212" s="17" t="s">
         <v>127</v>
@@ -4699,11 +4703,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" s="45">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A213" s="49">
         <v>68</v>
       </c>
-      <c r="B213" s="64">
+      <c r="B213" s="55">
         <v>43762</v>
       </c>
       <c r="C213" s="17"/>
@@ -4714,9 +4718,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" s="54"/>
-      <c r="B214" s="64"/>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A214" s="51"/>
+      <c r="B214" s="55"/>
       <c r="C214" s="17"/>
       <c r="D214" s="17" t="s">
         <v>127</v>
@@ -4725,11 +4729,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="45">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A215" s="49">
         <v>69</v>
       </c>
-      <c r="B215" s="64">
+      <c r="B215" s="55">
         <v>43764</v>
       </c>
       <c r="C215" s="17"/>
@@ -4740,9 +4744,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" s="46"/>
-      <c r="B216" s="64"/>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A216" s="50"/>
+      <c r="B216" s="55"/>
       <c r="C216" s="17"/>
       <c r="D216" s="17" t="s">
         <v>132</v>
@@ -4751,9 +4755,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" s="46"/>
-      <c r="B217" s="64"/>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A217" s="50"/>
+      <c r="B217" s="55"/>
       <c r="C217" s="17"/>
       <c r="D217" s="17" t="s">
         <v>16</v>
@@ -4762,42 +4766,42 @@
         <v>129</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" s="46"/>
-      <c r="B218" s="64"/>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A218" s="50"/>
+      <c r="B218" s="55"/>
       <c r="C218" s="17"/>
       <c r="D218" s="17"/>
       <c r="E218" s="17" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" s="54"/>
-      <c r="B219" s="64"/>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A219" s="51"/>
+      <c r="B219" s="55"/>
       <c r="C219" s="17"/>
       <c r="D219" s="17"/>
       <c r="E219" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A220" s="44">
         <v>70</v>
       </c>
-      <c r="B220" s="65">
+      <c r="B220" s="45">
         <v>43765</v>
       </c>
-      <c r="C220" s="66" t="s">
+      <c r="C220" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="D220" s="66"/>
-      <c r="E220" s="66"/>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" s="45">
+      <c r="D220" s="56"/>
+      <c r="E220" s="56"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A221" s="49">
         <v>71</v>
       </c>
-      <c r="B221" s="64">
+      <c r="B221" s="55">
         <v>43767</v>
       </c>
       <c r="C221" s="17"/>
@@ -4808,9 +4812,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A222" s="54"/>
-      <c r="B222" s="64"/>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A222" s="51"/>
+      <c r="B222" s="55"/>
       <c r="C222" s="17"/>
       <c r="D222" s="17" t="s">
         <v>132</v>
@@ -4819,24 +4823,24 @@
         <v>65</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A223" s="44">
         <v>72</v>
       </c>
-      <c r="B223" s="65">
+      <c r="B223" s="45">
         <v>43769</v>
       </c>
-      <c r="C223" s="65"/>
-      <c r="D223" s="65" t="s">
+      <c r="C223" s="45"/>
+      <c r="D223" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="E223" s="65"/>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A224" s="45">
+      <c r="E223" s="45"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A224" s="49">
         <v>73</v>
       </c>
-      <c r="B224" s="64">
+      <c r="B224" s="55">
         <v>43771</v>
       </c>
       <c r="C224" s="17" t="s">
@@ -4849,9 +4853,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A225" s="46"/>
-      <c r="B225" s="64"/>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A225" s="50"/>
+      <c r="B225" s="55"/>
       <c r="C225" s="17"/>
       <c r="D225" s="17" t="s">
         <v>127</v>
@@ -4860,9 +4864,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A226" s="46"/>
-      <c r="B226" s="64"/>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A226" s="50"/>
+      <c r="B226" s="55"/>
       <c r="C226" s="17"/>
       <c r="D226" s="17" t="s">
         <v>16</v>
@@ -4871,38 +4875,38 @@
         <v>44</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A227" s="46"/>
-      <c r="B227" s="64"/>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A227" s="50"/>
+      <c r="B227" s="55"/>
       <c r="C227" s="17"/>
       <c r="D227" s="17"/>
       <c r="E227" s="17" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A228" s="46"/>
-      <c r="B228" s="64"/>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A228" s="50"/>
+      <c r="B228" s="55"/>
       <c r="C228" s="17"/>
       <c r="D228" s="17"/>
       <c r="E228" s="17" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A229" s="54"/>
-      <c r="B229" s="64"/>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A229" s="51"/>
+      <c r="B229" s="55"/>
       <c r="C229" s="17"/>
       <c r="D229" s="17"/>
       <c r="E229" s="17" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A230" s="45">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A230" s="49">
         <v>74</v>
       </c>
-      <c r="B230" s="64">
+      <c r="B230" s="55">
         <v>43772</v>
       </c>
       <c r="C230" s="17" t="s">
@@ -4915,9 +4919,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A231" s="46"/>
-      <c r="B231" s="64"/>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A231" s="50"/>
+      <c r="B231" s="55"/>
       <c r="C231" s="17"/>
       <c r="D231" s="17" t="s">
         <v>127</v>
@@ -4926,9 +4930,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A232" s="46"/>
-      <c r="B232" s="64"/>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A232" s="50"/>
+      <c r="B232" s="55"/>
       <c r="C232" s="17"/>
       <c r="D232" s="17" t="s">
         <v>53</v>
@@ -4937,67 +4941,118 @@
         <v>44</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A233" s="46"/>
-      <c r="B233" s="64"/>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A233" s="50"/>
+      <c r="B233" s="55"/>
       <c r="C233" s="17"/>
       <c r="D233" s="17"/>
       <c r="E233" s="17" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A234" s="46"/>
-      <c r="B234" s="64"/>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A234" s="50"/>
+      <c r="B234" s="55"/>
       <c r="C234" s="17"/>
       <c r="D234" s="17"/>
       <c r="E234" s="17" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A235" s="54"/>
-      <c r="B235" s="64"/>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A235" s="51"/>
+      <c r="B235" s="55"/>
       <c r="C235" s="17"/>
       <c r="D235" s="17"/>
       <c r="E235" s="17" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A236" s="13">
         <v>75</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B236" s="74">
+        <v>43774</v>
+      </c>
+      <c r="D236" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A237" s="13">
         <v>76</v>
       </c>
+      <c r="D237" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D238" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="C48:F169"/>
+  <autoFilter ref="C48:F169" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="91">
-    <mergeCell ref="A230:A235"/>
-    <mergeCell ref="C183:E183"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="A213:A214"/>
-    <mergeCell ref="A215:A219"/>
-    <mergeCell ref="A221:A222"/>
-    <mergeCell ref="A224:A229"/>
-    <mergeCell ref="B215:B219"/>
-    <mergeCell ref="B221:B222"/>
-    <mergeCell ref="B224:B229"/>
-    <mergeCell ref="B230:B235"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="A174:A179"/>
-    <mergeCell ref="A180:A182"/>
-    <mergeCell ref="A184:A186"/>
-    <mergeCell ref="A187:A189"/>
-    <mergeCell ref="A190:A192"/>
-    <mergeCell ref="A193:A195"/>
-    <mergeCell ref="A196:A198"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="A201:A205"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B133:B138"/>
+    <mergeCell ref="B127:B132"/>
+    <mergeCell ref="A127:A132"/>
+    <mergeCell ref="A133:A138"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="A108:A112"/>
+    <mergeCell ref="A113:A119"/>
+    <mergeCell ref="B120:B126"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="A120:A126"/>
+    <mergeCell ref="B113:B119"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="A98:A102"/>
+    <mergeCell ref="B108:B112"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="B98:B102"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="A158:A163"/>
+    <mergeCell ref="A164:A169"/>
+    <mergeCell ref="C139:F139"/>
+    <mergeCell ref="B140:B145"/>
+    <mergeCell ref="A140:A145"/>
+    <mergeCell ref="A146:A151"/>
+    <mergeCell ref="B146:B151"/>
+    <mergeCell ref="B152:B157"/>
+    <mergeCell ref="A152:A157"/>
     <mergeCell ref="A206:A210"/>
     <mergeCell ref="C220:E220"/>
     <mergeCell ref="B158:B163"/>
@@ -5014,60 +5069,27 @@
     <mergeCell ref="B201:B205"/>
     <mergeCell ref="B206:B210"/>
     <mergeCell ref="B211:B212"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="A158:A163"/>
-    <mergeCell ref="A164:A169"/>
-    <mergeCell ref="C139:F139"/>
-    <mergeCell ref="B140:B145"/>
-    <mergeCell ref="A140:A145"/>
-    <mergeCell ref="A146:A151"/>
-    <mergeCell ref="B146:B151"/>
-    <mergeCell ref="B152:B157"/>
-    <mergeCell ref="A152:A157"/>
-    <mergeCell ref="B113:B119"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="A98:A102"/>
-    <mergeCell ref="B108:B112"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="B98:B102"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="B133:B138"/>
-    <mergeCell ref="B127:B132"/>
-    <mergeCell ref="A127:A132"/>
-    <mergeCell ref="A133:A138"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="A108:A112"/>
-    <mergeCell ref="A113:A119"/>
-    <mergeCell ref="B120:B126"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="A120:A126"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="A174:A179"/>
+    <mergeCell ref="A180:A182"/>
+    <mergeCell ref="A184:A186"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="A230:A235"/>
+    <mergeCell ref="C183:E183"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="A215:A219"/>
+    <mergeCell ref="A221:A222"/>
+    <mergeCell ref="A224:A229"/>
+    <mergeCell ref="B215:B219"/>
+    <mergeCell ref="B221:B222"/>
+    <mergeCell ref="B224:B229"/>
+    <mergeCell ref="B230:B235"/>
+    <mergeCell ref="A190:A192"/>
+    <mergeCell ref="A193:A195"/>
+    <mergeCell ref="A196:A198"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="A201:A205"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5079,19 +5101,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:G24"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="90" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.59375" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="11.5703125" style="1"/>
+    <col min="1" max="16384" width="11.59375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
@@ -5101,7 +5123,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
@@ -5121,7 +5143,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B4" s="5">
         <v>1</v>
       </c>
@@ -5141,7 +5163,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -5161,7 +5183,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -5181,7 +5203,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -5201,7 +5223,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B8" s="5">
         <v>5</v>
       </c>
@@ -5213,7 +5235,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B9" s="5">
         <v>6</v>
       </c>
@@ -5225,7 +5247,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B10" s="5">
         <v>7</v>
       </c>
@@ -5237,7 +5259,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B11" s="5">
         <v>8</v>
       </c>
@@ -5249,7 +5271,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B12" s="5">
         <v>9</v>
       </c>
@@ -5261,7 +5283,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B13" s="5">
         <v>10</v>
       </c>
@@ -5273,7 +5295,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B14" s="5">
         <v>11</v>
       </c>
@@ -5285,7 +5307,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B15" s="5">
         <v>12</v>
       </c>
@@ -5299,7 +5321,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B16" s="5">
         <v>13</v>
       </c>
@@ -5313,7 +5335,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="5">
         <v>14</v>
       </c>
@@ -5325,7 +5347,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="5">
         <v>15</v>
       </c>
@@ -5337,7 +5359,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B19" s="5">
         <v>16</v>
       </c>
@@ -5347,7 +5369,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B20" s="5">
         <v>17</v>
       </c>
@@ -5357,7 +5379,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B21" s="5">
         <v>18</v>
       </c>
@@ -5367,7 +5389,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B22" s="5">
         <v>19</v>
       </c>
@@ -5377,7 +5399,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="5">
         <v>20</v>
       </c>
@@ -5387,7 +5409,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="5">
         <v>21</v>
       </c>
@@ -5408,22 +5430,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.23828125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -5436,13 +5458,13 @@
       <c r="D1" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -5466,7 +5488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="21">
         <v>2</v>
       </c>
@@ -5490,7 +5512,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="21">
         <v>3</v>
       </c>
@@ -5514,7 +5536,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="21">
         <v>4</v>
       </c>
@@ -5529,7 +5551,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="21">
         <v>5</v>
       </c>
@@ -5544,7 +5566,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -5559,7 +5581,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="21">
         <v>7</v>
       </c>
@@ -5574,7 +5596,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="21">
         <v>8</v>
       </c>
@@ -5589,7 +5611,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -5599,24 +5621,24 @@
       </c>
       <c r="E10" s="15"/>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="71" t="s">
+    <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
       <c r="E12" s="15"/>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="72">
+    <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="47">
         <v>1</v>
       </c>
       <c r="B13" s="22" t="s">
@@ -5628,8 +5650,8 @@
       <c r="D13" s="22"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="72">
+    <row r="14" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="47">
         <v>2</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -5641,8 +5663,8 @@
       <c r="D14" s="22"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:9" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="72">
+    <row r="15" spans="1:9" s="42" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="47">
         <v>3</v>
       </c>
       <c r="B15" s="22" t="s">
@@ -5651,10 +5673,10 @@
       <c r="C15" s="22">
         <v>300</v>
       </c>
-      <c r="D15" s="73"/>
-    </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="72">
+      <c r="D15" s="48"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="47">
         <v>4</v>
       </c>
       <c r="B16" s="22" t="s">
@@ -5666,8 +5688,8 @@
       <c r="D16" s="22"/>
       <c r="E16" s="15"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="72">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="47">
         <v>5</v>
       </c>
       <c r="B17" s="22" t="s">
@@ -5678,8 +5700,8 @@
       </c>
       <c r="D17" s="22"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="72">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="47">
         <v>6</v>
       </c>
       <c r="B18" s="22" t="s">
@@ -5690,8 +5712,8 @@
       </c>
       <c r="D18" s="22"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="72">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="47">
         <v>7</v>
       </c>
       <c r="B19" s="22" t="s">
@@ -5702,8 +5724,8 @@
       </c>
       <c r="D19" s="22"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="72">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="47">
         <v>8</v>
       </c>
       <c r="B20" s="22" t="s">
@@ -5714,8 +5736,8 @@
       </c>
       <c r="D20" s="22"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="72">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="47">
         <v>9</v>
       </c>
       <c r="B21" s="22" t="s">
@@ -5726,7 +5748,7 @@
       </c>
       <c r="D21" s="22"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C22">
         <f>C21+C20+C19+C18+C17+C16+C15+C14+C13</f>
         <v>4400</v>
@@ -5743,7 +5765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5753,12 +5775,12 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.59375" defaultRowHeight="27.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="10"/>
-    <col min="2" max="2" width="45.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.28515625" style="12" customWidth="1"/>
-    <col min="4" max="16384" width="11.5703125" style="12"/>
+    <col min="1" max="1" width="11.59375" style="10"/>
+    <col min="2" max="2" width="45.578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.3203125" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="11.59375" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.4">
@@ -5772,7 +5794,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32">
         <v>1</v>
       </c>
@@ -5781,7 +5803,7 @@
       </c>
       <c r="C2" s="34"/>
     </row>
-    <row r="3" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32">
         <v>2</v>
       </c>
@@ -5790,7 +5812,7 @@
       </c>
       <c r="C3" s="34"/>
     </row>
-    <row r="4" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32">
         <v>3</v>
       </c>
@@ -5799,7 +5821,7 @@
       </c>
       <c r="C4" s="34"/>
     </row>
-    <row r="5" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32">
         <v>4</v>
       </c>
@@ -5808,7 +5830,7 @@
       </c>
       <c r="C5" s="34"/>
     </row>
-    <row r="6" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="32">
         <v>5</v>
       </c>
@@ -5817,7 +5839,7 @@
       </c>
       <c r="C6" s="34"/>
     </row>
-    <row r="7" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="32">
         <v>6</v>
       </c>
@@ -5826,7 +5848,7 @@
       </c>
       <c r="C7" s="34"/>
     </row>
-    <row r="8" spans="1:3" ht="96.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="32">
         <v>7</v>
       </c>
@@ -5835,7 +5857,7 @@
       </c>
       <c r="C8" s="34"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="32">
         <v>8</v>
       </c>
@@ -5844,7 +5866,7 @@
       </c>
       <c r="C9" s="34"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="32">
         <v>9</v>
       </c>
